--- a/4 четверть_5_JavaScript_Front - Fetch, FormData, form.xlsx
+++ b/4 четверть_5_JavaScript_Front - Fetch, FormData, form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F11FA2-E3C1-45ED-B1D9-E38D50883751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A10147-1BC4-4C6F-B44D-FEF96BB22CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17100" yWindow="-20895" windowWidth="20745" windowHeight="20145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Построение HTML стр" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="798">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -15498,16 +15498,33 @@
   <si>
     <t>Альтернатива fetch API</t>
   </si>
+  <si>
+    <t>nvm</t>
+  </si>
+  <si>
+    <t>nvm for windows</t>
+  </si>
+  <si>
+    <t>`https://github.com/coreybutler/nvm-windows/releases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16138,11 +16155,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -16162,129 +16179,144 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="41" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="32" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -16292,70 +16324,116 @@
     <xf numFmtId="49" fontId="31" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="27" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="16" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="12" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16364,89 +16442,31 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="16" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="15" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="12" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16456,55 +16476,55 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -16512,11 +16532,11 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -16524,37 +16544,34 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -16563,40 +16580,49 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16605,19 +16631,19 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -16625,15 +16651,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -17922,44 +17939,44 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="161"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="164"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -17978,7 +17995,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>131</v>
       </c>
@@ -17986,7 +18003,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>425</v>
       </c>
@@ -18009,57 +18026,57 @@
       <c r="U4" s="2"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="61" t="s">
         <v>429</v>
       </c>
@@ -18067,127 +18084,127 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C17" s="61" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C18" s="61" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C19" s="61" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C20" s="61" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C22" s="61" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C24" s="61" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="C25" s="61" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="61" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="61" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="64" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C30" s="61" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C31" s="61" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C33" s="61" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C34" s="61" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C36" s="61" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C37" s="61" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C39" s="61" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C40" s="61" t="s">
         <v>453</v>
       </c>
@@ -18213,46 +18230,46 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -18271,7 +18288,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -18279,7 +18296,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -18315,48 +18332,48 @@
     <tabColor theme="8" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -18375,7 +18392,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>284</v>
       </c>
@@ -18390,7 +18407,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>285</v>
       </c>
@@ -18417,7 +18434,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>288</v>
       </c>
@@ -18429,7 +18446,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>290</v>
       </c>
@@ -18441,7 +18458,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>293</v>
       </c>
@@ -18455,7 +18472,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>297</v>
       </c>
@@ -18467,7 +18484,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>300</v>
       </c>
@@ -18479,7 +18496,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>302</v>
       </c>
@@ -18491,7 +18508,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>305</v>
       </c>
@@ -18503,20 +18520,33 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="140" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -18542,42 +18572,42 @@
   </sheetPr>
   <dimension ref="A1:V216"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView topLeftCell="A34" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="12"/>
-    <col min="21" max="21" width="67.7265625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="9" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="9" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="39.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="12"/>
+    <col min="21" max="21" width="67.77734375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="9" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="9" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="9" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -18596,7 +18626,7 @@
       <c r="S1" s="14"/>
       <c r="U1" s="14"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -18610,7 +18640,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -18624,7 +18654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -18635,12 +18665,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="8" t="s">
         <v>26</v>
@@ -18667,7 +18697,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -18690,7 +18720,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -18717,7 +18747,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -18740,7 +18770,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -18763,7 +18793,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="8" t="s">
         <v>35</v>
@@ -18790,7 +18820,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -18813,7 +18843,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -18834,7 +18864,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -18853,7 +18883,7 @@
       <c r="S14" s="14"/>
       <c r="U14" s="14"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -18867,7 +18897,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -18892,7 +18922,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -18917,7 +18947,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" s="11" customFormat="1" ht="232" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" s="11" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="8" t="s">
         <v>45</v>
@@ -18942,7 +18972,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>47</v>
       </c>
@@ -18969,7 +18999,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
@@ -18994,7 +19024,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" s="11" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" s="11" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
@@ -19023,7 +19053,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -19050,7 +19080,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
@@ -19079,7 +19109,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>63</v>
       </c>
@@ -19106,7 +19136,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -19133,7 +19163,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>69</v>
       </c>
@@ -19158,7 +19188,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" s="11" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" s="11" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>71</v>
       </c>
@@ -19185,7 +19215,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
@@ -19208,7 +19238,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" s="11" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" s="11" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>74</v>
       </c>
@@ -19233,7 +19263,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>76</v>
       </c>
@@ -19260,7 +19290,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" s="11" customFormat="1" ht="290" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" s="11" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
@@ -19283,7 +19313,7 @@
       <c r="U31" s="8"/>
       <c r="V31" s="9"/>
     </row>
-    <row r="32" spans="1:22" s="11" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" s="11" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
@@ -19306,7 +19336,7 @@
       <c r="U32" s="8"/>
       <c r="V32" s="9"/>
     </row>
-    <row r="33" spans="1:22" s="11" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" s="11" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
@@ -19329,7 +19359,7 @@
       <c r="U33" s="8"/>
       <c r="V33" s="9"/>
     </row>
-    <row r="34" spans="1:22" s="11" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" s="11" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
@@ -19352,7 +19382,7 @@
       <c r="U34" s="8"/>
       <c r="V34" s="9"/>
     </row>
-    <row r="35" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="52" t="s">
         <v>529</v>
       </c>
@@ -19377,7 +19407,7 @@
       <c r="U35" s="8"/>
       <c r="V35" s="9"/>
     </row>
-    <row r="36" spans="1:22" s="11" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" s="11" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="s">
         <v>84</v>
       </c>
@@ -19406,7 +19436,7 @@
       <c r="U36" s="8"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" spans="1:22" s="11" customFormat="1" ht="203" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" s="11" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
@@ -19435,7 +19465,7 @@
       <c r="U37" s="8"/>
       <c r="V37" s="9"/>
     </row>
-    <row r="38" spans="1:22" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>90</v>
       </c>
@@ -19464,7 +19494,7 @@
       <c r="U38" s="8"/>
       <c r="V38" s="9"/>
     </row>
-    <row r="39" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>94</v>
       </c>
@@ -19487,7 +19517,7 @@
       <c r="U39" s="8"/>
       <c r="V39" s="9"/>
     </row>
-    <row r="40" spans="1:22" s="11" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" s="11" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>95</v>
       </c>
@@ -19514,7 +19544,7 @@
       <c r="U40" s="8"/>
       <c r="V40" s="9"/>
     </row>
-    <row r="41" spans="1:22" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>98</v>
       </c>
@@ -19541,7 +19571,7 @@
       <c r="U41" s="8"/>
       <c r="V41" s="9"/>
     </row>
-    <row r="42" spans="1:22" s="11" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" s="11" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>101</v>
       </c>
@@ -19566,7 +19596,7 @@
       <c r="U42" s="8"/>
       <c r="V42" s="9"/>
     </row>
-    <row r="43" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>103</v>
       </c>
@@ -19577,7 +19607,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>106</v>
       </c>
@@ -19588,7 +19618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>109</v>
       </c>
@@ -19599,12 +19629,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="C46" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>113</v>
       </c>
@@ -19612,7 +19642,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>115</v>
       </c>
@@ -19623,7 +19653,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>117</v>
       </c>
@@ -19634,7 +19664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>120</v>
       </c>
@@ -19642,7 +19672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
         <v>122</v>
       </c>
@@ -19653,7 +19683,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>124</v>
       </c>
@@ -19665,7 +19695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A53" s="127" t="s">
         <v>591</v>
       </c>
@@ -19677,13 +19707,13 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>127</v>
       </c>
@@ -19692,17 +19722,17 @@
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>39</v>
       </c>
@@ -19710,12 +19740,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>131</v>
@@ -19727,17 +19757,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="52" t="s">
         <v>527</v>
       </c>
@@ -19745,41 +19775,41 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C65" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C66" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C68" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C69" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -19798,7 +19828,7 @@
       <c r="S71" s="14"/>
       <c r="U71" s="14"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>143</v>
       </c>
@@ -19812,7 +19842,7 @@
       <c r="U72" s="9"/>
       <c r="V72" s="8"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>145</v>
       </c>
@@ -19826,7 +19856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>148</v>
       </c>
@@ -19834,7 +19864,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>150</v>
       </c>
@@ -19845,7 +19875,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>152</v>
       </c>
@@ -19856,7 +19886,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>155</v>
       </c>
@@ -19867,7 +19897,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>158</v>
       </c>
@@ -19878,7 +19908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>160</v>
       </c>
@@ -19889,14 +19919,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="C80" s="41" t="s">
         <v>385</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
         <v>384</v>
       </c>
@@ -19904,7 +19934,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>163</v>
       </c>
@@ -19912,7 +19942,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>165</v>
       </c>
@@ -19923,7 +19953,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>10</v>
       </c>
@@ -19934,12 +19964,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="128" t="s">
         <v>595</v>
       </c>
@@ -19947,7 +19977,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>170</v>
       </c>
@@ -19955,7 +19985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>172</v>
       </c>
@@ -19966,7 +19996,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>174</v>
       </c>
@@ -19977,7 +20007,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>176</v>
       </c>
@@ -19988,7 +20018,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>179</v>
       </c>
@@ -19999,7 +20029,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>182</v>
       </c>
@@ -20010,10 +20040,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -20032,7 +20062,7 @@
       <c r="S94" s="14"/>
       <c r="U94" s="14"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>185</v>
       </c>
@@ -20046,7 +20076,7 @@
       <c r="U95" s="9"/>
       <c r="V95" s="8"/>
     </row>
-    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
         <v>187</v>
       </c>
@@ -20063,7 +20093,7 @@
       <c r="U96" s="9"/>
       <c r="V96" s="8"/>
     </row>
-    <row r="97" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A97" s="23" t="s">
         <v>191</v>
       </c>
@@ -20077,7 +20107,7 @@
       <c r="U97" s="9"/>
       <c r="V97" s="8"/>
     </row>
-    <row r="98" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>194</v>
       </c>
@@ -20091,7 +20121,7 @@
       <c r="U98" s="9"/>
       <c r="V98" s="8"/>
     </row>
-    <row r="99" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="39" t="s">
         <v>388</v>
       </c>
@@ -20102,7 +20132,7 @@
       <c r="U99" s="9"/>
       <c r="V99" s="8"/>
     </row>
-    <row r="100" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>197</v>
       </c>
@@ -20119,7 +20149,7 @@
       <c r="U100" s="9"/>
       <c r="V100" s="8"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -20139,7 +20169,7 @@
       <c r="U101" s="14"/>
       <c r="V101" s="8"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>201</v>
       </c>
@@ -20151,7 +20181,7 @@
       </c>
       <c r="V102" s="8"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>203</v>
       </c>
@@ -20160,7 +20190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>204</v>
       </c>
@@ -20174,7 +20204,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>207</v>
       </c>
@@ -20188,7 +20218,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="30" t="s">
         <v>210</v>
       </c>
@@ -20199,7 +20229,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="30" t="s">
         <v>313</v>
       </c>
@@ -20211,7 +20241,7 @@
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="55" t="s">
         <v>405</v>
       </c>
@@ -20219,20 +20249,20 @@
       <c r="C108" s="30"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B109" s="30"/>
       <c r="C109" s="54" t="s">
         <v>406</v>
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>213</v>
       </c>
       <c r="C110" s="16"/>
     </row>
-    <row r="111" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>214</v>
       </c>
@@ -20240,7 +20270,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>216</v>
       </c>
@@ -20254,7 +20284,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A113" s="30" t="s">
         <v>312</v>
       </c>
@@ -20268,12 +20298,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P114" s="9"/>
       <c r="U114" s="9"/>
       <c r="V114" s="8"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -20293,7 +20323,7 @@
       <c r="U115" s="14"/>
       <c r="V115" s="8"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>221</v>
       </c>
@@ -20307,7 +20337,7 @@
       <c r="U116" s="9"/>
       <c r="V116" s="8"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
         <v>223</v>
       </c>
@@ -20321,7 +20351,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>227</v>
       </c>
@@ -20332,7 +20362,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
         <v>230</v>
       </c>
@@ -20343,7 +20373,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>233</v>
       </c>
@@ -20357,7 +20387,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>237</v>
       </c>
@@ -20368,7 +20398,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>240</v>
       </c>
@@ -20379,7 +20409,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>243</v>
       </c>
@@ -20390,7 +20420,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>246</v>
       </c>
@@ -20401,7 +20431,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="94" t="s">
         <v>249</v>
       </c>
@@ -20412,7 +20442,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -20431,7 +20461,7 @@
       <c r="S127" s="14"/>
       <c r="U127" s="14"/>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>252</v>
       </c>
@@ -20445,12 +20475,12 @@
       <c r="U128" s="9"/>
       <c r="V128" s="8"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="124" t="s">
         <v>575</v>
       </c>
@@ -20464,7 +20494,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="125" t="s">
         <v>576</v>
       </c>
@@ -20473,7 +20503,7 @@
       </c>
       <c r="C131" s="30"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="124" t="s">
         <v>577</v>
       </c>
@@ -20484,7 +20514,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>390</v>
       </c>
@@ -20493,7 +20523,7 @@
       </c>
       <c r="C133" s="37"/>
     </row>
-    <row r="134" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>256</v>
       </c>
@@ -20507,7 +20537,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>391</v>
       </c>
@@ -20519,7 +20549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>260</v>
       </c>
@@ -20530,7 +20560,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="48" t="s">
         <v>392</v>
       </c>
@@ -20542,7 +20572,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>393</v>
       </c>
@@ -20556,7 +20586,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A139" s="35" t="s">
         <v>366</v>
       </c>
@@ -20567,7 +20597,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>265</v>
       </c>
@@ -20579,7 +20609,7 @@
       </c>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>278</v>
       </c>
@@ -20589,7 +20619,7 @@
       <c r="C141" s="37"/>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>279</v>
       </c>
@@ -20603,7 +20633,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>282</v>
       </c>
@@ -20614,11 +20644,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C144" s="34"/>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -20637,7 +20667,7 @@
       <c r="S145" s="14"/>
       <c r="U145" s="14"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>252</v>
       </c>
@@ -20651,13 +20681,13 @@
       <c r="U146" s="9"/>
       <c r="V146" s="8"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>267</v>
       </c>
       <c r="C147" s="37"/>
     </row>
-    <row r="148" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>267</v>
       </c>
@@ -20671,13 +20701,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="58" t="s">
         <v>413</v>
       </c>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>270</v>
       </c>
@@ -20688,7 +20718,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A151" s="125" t="s">
         <v>582</v>
       </c>
@@ -20702,7 +20732,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" s="124" t="s">
         <v>577</v>
       </c>
@@ -20714,7 +20744,7 @@
       </c>
       <c r="D152" s="56"/>
     </row>
-    <row r="153" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="129" t="s">
         <v>598</v>
       </c>
@@ -20726,7 +20756,7 @@
       </c>
       <c r="D153" s="56"/>
     </row>
-    <row r="154" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="129" t="s">
         <v>599</v>
       </c>
@@ -20738,7 +20768,7 @@
       </c>
       <c r="D154" s="56"/>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" s="129" t="s">
         <v>583</v>
       </c>
@@ -20748,7 +20778,7 @@
       </c>
       <c r="D155" s="56"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" s="126" t="s">
         <v>585</v>
       </c>
@@ -20758,7 +20788,7 @@
       </c>
       <c r="D156" s="56"/>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" s="126" t="s">
         <v>587</v>
       </c>
@@ -20768,7 +20798,7 @@
       </c>
       <c r="D157" s="56"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" s="126" t="s">
         <v>588</v>
       </c>
@@ -20778,7 +20808,7 @@
       </c>
       <c r="D158" s="56"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" s="59" t="s">
         <v>414</v>
       </c>
@@ -20786,7 +20816,7 @@
       <c r="C159" s="56"/>
       <c r="D159" s="56"/>
     </row>
-    <row r="160" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A160" s="57" t="s">
         <v>271</v>
       </c>
@@ -20800,7 +20830,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A161" s="125" t="s">
         <v>274</v>
       </c>
@@ -20809,7 +20839,7 @@
       </c>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>276</v>
       </c>
@@ -20818,10 +20848,10 @@
       </c>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -20840,7 +20870,7 @@
       <c r="S164" s="14"/>
       <c r="U164" s="14"/>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>252</v>
       </c>
@@ -20852,7 +20882,7 @@
       <c r="U165" s="9"/>
       <c r="V165" s="8"/>
     </row>
-    <row r="166" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="43" t="s">
         <v>349</v>
       </c>
@@ -20861,7 +20891,7 @@
       <c r="U166" s="9"/>
       <c r="V166" s="8"/>
     </row>
-    <row r="167" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C167" s="35" t="s">
         <v>350</v>
       </c>
@@ -20870,18 +20900,18 @@
       <c r="U167" s="9"/>
       <c r="V167" s="8"/>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" s="40" t="s">
         <v>320</v>
       </c>
       <c r="C168" s="37"/>
     </row>
-    <row r="169" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C169" s="35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B170" s="35" t="s">
         <v>323</v>
       </c>
@@ -20892,7 +20922,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="39" t="s">
         <v>324</v>
       </c>
@@ -20900,12 +20930,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="44" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A173" s="95"/>
       <c r="B173" s="94" t="s">
         <v>511</v>
@@ -20917,7 +20947,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" s="122" t="s">
         <v>573</v>
       </c>
@@ -20925,7 +20955,7 @@
       <c r="C174" s="35"/>
       <c r="D174" s="35"/>
     </row>
-    <row r="175" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="95"/>
       <c r="B175" s="94"/>
       <c r="C175" s="123" t="s">
@@ -20933,7 +20963,7 @@
       </c>
       <c r="D175" s="35"/>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" s="122" t="s">
         <v>512</v>
       </c>
@@ -20941,7 +20971,7 @@
       <c r="C176" s="35"/>
       <c r="D176" s="35"/>
     </row>
-    <row r="177" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A177" s="95"/>
       <c r="B177" s="116" t="s">
         <v>564</v>
@@ -20953,14 +20983,14 @@
         <v>565</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="44" t="s">
         <v>338</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="8"/>
     </row>
-    <row r="179" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B179" s="35" t="s">
         <v>330</v>
       </c>
@@ -20971,34 +21001,34 @@
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="44" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B181" s="35"/>
       <c r="C181" s="35" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C182" s="35" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="51" t="s">
         <v>401</v>
       </c>
       <c r="C183" s="35"/>
     </row>
-    <row r="184" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="C184" s="49" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="42" t="s">
         <v>337</v>
       </c>
@@ -21009,7 +21039,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="35" t="s">
         <v>333</v>
       </c>
@@ -21020,7 +21050,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="35" t="s">
         <v>334</v>
       </c>
@@ -21031,14 +21061,14 @@
         <v>336</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="50" t="s">
         <v>399</v>
       </c>
       <c r="B188" s="35"/>
       <c r="C188" s="35"/>
     </row>
-    <row r="189" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A189" s="35"/>
       <c r="B189" s="49" t="s">
         <v>400</v>
@@ -21047,19 +21077,19 @@
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A190" s="35"/>
       <c r="B190" s="35"/>
       <c r="C190" s="35" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="40" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="53" t="s">
         <v>340</v>
       </c>
@@ -21070,7 +21100,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="53" t="s">
         <v>342</v>
       </c>
@@ -21078,7 +21108,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A194" s="39" t="s">
         <v>345</v>
       </c>
@@ -21089,18 +21119,18 @@
         <v>346</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195" s="40" t="s">
         <v>348</v>
       </c>
       <c r="C195" s="37"/>
     </row>
-    <row r="196" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C196" s="35" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B197" s="35" t="s">
         <v>353</v>
       </c>
@@ -21108,7 +21138,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="35" t="s">
         <v>355</v>
       </c>
@@ -21116,12 +21146,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199" s="44" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B200" s="35" t="s">
         <v>356</v>
       </c>
@@ -21129,17 +21159,17 @@
         <v>357</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201" s="44" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C202" s="35" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -21160,7 +21190,7 @@
       <c r="U203" s="8"/>
       <c r="V203" s="9"/>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -21179,7 +21209,7 @@
       <c r="S204" s="14"/>
       <c r="U204" s="14"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" s="107"/>
       <c r="C205" s="27" t="s">
         <v>532</v>
@@ -21189,17 +21219,17 @@
       <c r="U205" s="9"/>
       <c r="V205" s="8"/>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" s="109" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C207" s="110" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A208" s="111" t="s">
         <v>546</v>
       </c>
@@ -21210,7 +21240,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="111" t="s">
         <v>545</v>
       </c>
@@ -21218,7 +21248,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="111" t="s">
         <v>549</v>
       </c>
@@ -21229,7 +21259,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="108" t="s">
         <v>533</v>
       </c>
@@ -21237,7 +21267,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="108" t="s">
         <v>534</v>
       </c>
@@ -21248,7 +21278,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="111" t="s">
         <v>535</v>
       </c>
@@ -21259,7 +21289,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="108" t="s">
         <v>536</v>
       </c>
@@ -21270,7 +21300,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="111" t="s">
         <v>537</v>
       </c>
@@ -21278,7 +21308,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="108" t="s">
         <v>538</v>
       </c>
@@ -21305,38 +21335,38 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="133" t="s">
         <v>692</v>
       </c>
@@ -21344,7 +21374,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" s="133" t="s">
         <v>693</v>
       </c>
@@ -21352,7 +21382,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" s="133" t="s">
         <v>694</v>
       </c>
@@ -21360,7 +21390,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -21379,7 +21409,7 @@
       <c r="S5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C6" s="138" t="s">
         <v>627</v>
       </c>
@@ -21387,7 +21417,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="130" t="s">
         <v>655</v>
       </c>
@@ -21395,7 +21425,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="133" t="s">
         <v>629</v>
       </c>
@@ -21403,7 +21433,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="132" t="s">
         <v>644</v>
       </c>
@@ -21414,14 +21444,14 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="135" t="s">
         <v>635</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
     </row>
-    <row r="11" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="132" t="s">
         <v>641</v>
       </c>
@@ -21432,7 +21462,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="132" t="s">
         <v>642</v>
       </c>
@@ -21440,18 +21470,18 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="138" t="s">
         <v>643</v>
       </c>
       <c r="C13" s="133"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C14" s="133" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="132" t="s">
         <v>634</v>
       </c>
@@ -21459,7 +21489,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="132" t="s">
         <v>634</v>
       </c>
@@ -21467,7 +21497,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="132" t="s">
         <v>637</v>
       </c>
@@ -21475,13 +21505,13 @@
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="137" t="s">
         <v>646</v>
       </c>
       <c r="C18" s="133"/>
     </row>
-    <row r="19" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A19" s="132" t="s">
         <v>644</v>
       </c>
@@ -21489,7 +21519,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="135" t="s">
         <v>635</v>
       </c>
@@ -21497,7 +21527,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="138" t="s">
         <v>652</v>
       </c>
@@ -21505,7 +21535,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="132" t="s">
         <v>634</v>
       </c>
@@ -21513,7 +21543,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="132" t="s">
         <v>634</v>
       </c>
@@ -21521,7 +21551,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="132" t="s">
         <v>634</v>
       </c>
@@ -21529,7 +21559,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -21548,7 +21578,7 @@
       <c r="S26" s="6"/>
       <c r="U26" s="6"/>
     </row>
-    <row r="27" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C27" s="138" t="s">
         <v>653</v>
       </c>
@@ -21556,37 +21586,37 @@
       <c r="U27" s="1"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="134" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C29" s="133" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C30" s="133" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="134" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C32" s="133" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C33" s="133" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="134" t="s">
         <v>657</v>
       </c>
@@ -21597,7 +21627,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C35" s="133" t="s">
         <v>671</v>
       </c>
@@ -21605,7 +21635,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="135" t="s">
         <v>635</v>
       </c>
@@ -21613,7 +21643,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="138" t="s">
         <v>670</v>
       </c>
@@ -21621,7 +21651,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="132" t="s">
         <v>634</v>
       </c>
@@ -21635,7 +21665,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="132"/>
       <c r="B39" s="1"/>
       <c r="C39" s="133" t="s">
@@ -21645,7 +21675,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="133"/>
       <c r="B40" s="1"/>
       <c r="C40" s="133" t="s">
@@ -21655,7 +21685,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="133" t="s">
         <v>674</v>
       </c>
@@ -21663,7 +21693,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -21682,7 +21712,7 @@
       <c r="S42" s="6"/>
       <c r="U42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C43" s="138" t="s">
         <v>690</v>
       </c>
@@ -21690,18 +21720,18 @@
       <c r="U43" s="1"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="140" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="141" t="s">
         <v>699</v>
       </c>
@@ -21710,12 +21740,12 @@
       </c>
       <c r="C46" s="133"/>
     </row>
-    <row r="47" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="141" t="s">
         <v>700</v>
       </c>
@@ -21723,12 +21753,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="141" t="s">
         <v>701</v>
       </c>
@@ -21736,27 +21766,27 @@
         <v>566</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C51" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="140" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B55" s="142" t="s">
         <v>708</v>
       </c>
@@ -21767,7 +21797,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -21786,7 +21816,7 @@
       <c r="S56" s="6"/>
       <c r="U56" s="6"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C57" s="146" t="s">
         <v>732</v>
       </c>
@@ -21794,27 +21824,27 @@
       <c r="U57" s="1"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="150" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="C60" s="144" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="150" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B62" s="144" t="s">
         <v>731</v>
       </c>
@@ -21822,12 +21852,12 @@
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="149" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B64" s="144" t="s">
         <v>742</v>
       </c>
@@ -21835,7 +21865,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="148" t="s">
         <v>737</v>
       </c>
@@ -21843,7 +21873,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="148" t="s">
         <v>739</v>
       </c>
@@ -21851,7 +21881,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="148" t="s">
         <v>738</v>
       </c>
@@ -21859,7 +21889,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="148" t="s">
         <v>745</v>
       </c>
@@ -21870,7 +21900,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="148" t="s">
         <v>746</v>
       </c>
@@ -21881,7 +21911,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="148" t="s">
         <v>743</v>
       </c>
@@ -21892,7 +21922,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="148" t="s">
         <v>744</v>
       </c>
@@ -21920,38 +21950,38 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -21970,7 +22000,7 @@
       <c r="S1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C2" s="138" t="s">
         <v>675</v>
       </c>
@@ -21978,7 +22008,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="130" t="s">
         <v>675</v>
       </c>
@@ -22001,22 +22031,22 @@
       <c r="U3" s="2"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C4" s="133" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C5" s="133" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="139" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="133" t="s">
         <v>689</v>
@@ -22025,7 +22055,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="132" t="s">
         <v>680</v>
       </c>
@@ -22036,7 +22066,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="132" t="s">
         <v>681</v>
       </c>
@@ -22044,23 +22074,23 @@
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="139" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="C11" s="133" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="132" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="132" t="s">
         <v>683</v>
       </c>
@@ -22083,38 +22113,38 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -22133,7 +22163,7 @@
       <c r="S1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="143" t="s">
@@ -22156,28 +22186,28 @@
       <c r="U2" s="2"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="75.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="144"/>
       <c r="C3" s="144" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C4" s="144" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="149" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="144" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="149" t="s">
         <v>716</v>
       </c>
@@ -22185,7 +22215,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B8" s="144" t="s">
         <v>720</v>
       </c>
@@ -22193,12 +22223,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9" s="144" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="148" t="s">
         <v>725</v>
       </c>
@@ -22212,7 +22242,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="148" t="s">
         <v>726</v>
       </c>
@@ -22224,12 +22254,12 @@
       </c>
       <c r="D11" s="144"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12" s="144" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="144" t="s">
         <v>718</v>
       </c>
@@ -22250,52 +22280,52 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="76" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="77" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="77" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="76" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="77" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="76" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="76" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="76" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="76" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="76" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="76" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="75" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="77" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="77" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="77" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="76" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="78"/>
-    <col min="21" max="21" width="67.7265625" style="77" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="76" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="76" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="76" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="76" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="76" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="76"/>
+    <col min="2" max="2" width="50.5546875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="75" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="77" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="76" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="76" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="75" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="76" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="76" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="76" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="76" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="75" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="77" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="77" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="77" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="76" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="78"/>
+    <col min="21" max="21" width="67.77734375" style="77" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="76" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="76" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="76" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="76" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="76" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="77"/>
       <c r="D1" s="77"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>506</v>
       </c>
       <c r="D2" s="89"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
@@ -22303,31 +22333,31 @@
       </c>
       <c r="D3" s="89"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="164" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="162" t="s">
         <v>792</v>
       </c>
       <c r="B4" s="89"/>
       <c r="C4" s="90"/>
       <c r="D4" s="89"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="89"/>
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="163" t="s">
         <v>794</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="161" t="s">
         <v>793</v>
       </c>
       <c r="D5" s="89"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="89"/>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -22350,7 +22380,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="101" t="s">
         <v>525</v>
       </c>
@@ -22367,7 +22397,7 @@
       <c r="T8" s="12"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
         <v>456</v>
       </c>
@@ -22385,7 +22415,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:22" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="35" t="s">
@@ -22401,7 +22431,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
         <v>458</v>
       </c>
@@ -22417,7 +22447,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:22" s="9" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B12" s="69" t="s">
         <v>459</v>
       </c>
@@ -22432,7 +22462,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
         <v>460</v>
       </c>
@@ -22448,7 +22478,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:22" s="9" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B14" s="69" t="s">
         <v>459</v>
       </c>
@@ -22463,7 +22493,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
         <v>461</v>
       </c>
@@ -22479,7 +22509,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
         <v>462</v>
       </c>
@@ -22497,7 +22527,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="69" t="s">
         <v>463</v>
@@ -22512,7 +22542,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="106" t="s">
         <v>531</v>
       </c>
@@ -22530,7 +22560,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="121" t="s">
         <v>570</v>
       </c>
@@ -22550,7 +22580,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="71" t="s">
         <v>465</v>
       </c>
@@ -22568,7 +22598,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="8"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
         <v>466</v>
       </c>
@@ -22586,7 +22616,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B22" s="105" t="s">
         <v>530</v>
       </c>
@@ -22601,7 +22631,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="68" t="s">
         <v>469</v>
       </c>
@@ -22619,7 +22649,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="74" t="s">
         <v>5</v>
       </c>
@@ -22639,7 +22669,7 @@
       <c r="T24" s="12"/>
       <c r="U24" s="8"/>
     </row>
-    <row r="25" spans="1:21" s="9" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" s="9" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="B25" s="69" t="s">
         <v>472</v>
       </c>
@@ -22656,7 +22686,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="69" t="s">
         <v>474</v>
       </c>
@@ -22673,7 +22703,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" s="9" customFormat="1" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="388.8" x14ac:dyDescent="0.3">
       <c r="B27" s="69" t="s">
         <v>476</v>
       </c>
@@ -22690,7 +22720,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="8"/>
     </row>
-    <row r="28" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="68" t="s">
         <v>469</v>
       </c>
@@ -22708,7 +22738,7 @@
       <c r="T28" s="12"/>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A29" s="74" t="s">
         <v>6</v>
       </c>
@@ -22726,7 +22756,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="117" t="s">
         <v>561</v>
       </c>
@@ -22734,7 +22764,7 @@
       <c r="C30" s="89"/>
       <c r="D30" s="89"/>
     </row>
-    <row r="31" spans="1:21" ht="203" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A31" s="89"/>
       <c r="B31" s="89"/>
       <c r="C31" s="116" t="s">
@@ -22742,7 +22772,7 @@
       </c>
       <c r="D31" s="89"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="68" t="s">
         <v>469</v>
       </c>
@@ -22752,7 +22782,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="89"/>
     </row>
-    <row r="33" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A33" s="119" t="s">
         <v>566</v>
       </c>
@@ -22762,13 +22792,13 @@
       </c>
       <c r="D33" s="89"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="89"/>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>
       <c r="D34" s="89"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="79"/>
       <c r="B35" s="80"/>
       <c r="C35" s="80"/>
@@ -22787,7 +22817,7 @@
       <c r="S35" s="80"/>
       <c r="U35" s="80"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="100" t="s">
         <v>525</v>
       </c>
@@ -22800,7 +22830,7 @@
       <c r="U36" s="76"/>
       <c r="V36" s="77"/>
     </row>
-    <row r="37" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
         <v>479</v>
       </c>
@@ -22823,7 +22853,7 @@
       <c r="U37" s="77"/>
       <c r="V37" s="76"/>
     </row>
-    <row r="38" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A38" s="81"/>
       <c r="B38" s="120" t="s">
         <v>568</v>
@@ -22833,7 +22863,7 @@
       </c>
       <c r="D38" s="81"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="84" t="s">
         <v>481</v>
       </c>
@@ -22841,7 +22871,7 @@
       <c r="C39" s="82"/>
       <c r="D39" s="81"/>
     </row>
-    <row r="40" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="81"/>
       <c r="B40" s="82"/>
       <c r="C40" s="85" t="s">
@@ -22849,7 +22879,7 @@
       </c>
       <c r="D40" s="81"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="83" t="s">
         <v>483</v>
       </c>
@@ -22859,7 +22889,7 @@
       <c r="C41" s="87"/>
       <c r="D41" s="83"/>
     </row>
-    <row r="42" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A42" s="81"/>
       <c r="B42" s="82" t="s">
         <v>485</v>
@@ -22871,7 +22901,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="81"/>
       <c r="B43" s="87" t="s">
         <v>5</v>
@@ -22881,7 +22911,7 @@
       </c>
       <c r="D43" s="81"/>
     </row>
-    <row r="44" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A44" s="82" t="s">
         <v>488</v>
       </c>
@@ -22895,7 +22925,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A45" s="81" t="s">
         <v>492</v>
       </c>
@@ -22909,7 +22939,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A46" s="81"/>
       <c r="B46" s="82" t="s">
         <v>496</v>
@@ -22919,7 +22949,7 @@
       </c>
       <c r="D46" s="82"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="88" t="s">
         <v>498</v>
       </c>
@@ -22929,7 +22959,7 @@
       <c r="C47" s="82"/>
       <c r="D47" s="82"/>
     </row>
-    <row r="48" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A48" s="81"/>
       <c r="B48" s="82" t="s">
         <v>507</v>
@@ -22939,7 +22969,7 @@
       </c>
       <c r="D48" s="82"/>
     </row>
-    <row r="49" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="83" t="s">
         <v>501</v>
       </c>
@@ -22964,7 +22994,7 @@
       <c r="U49" s="77"/>
       <c r="V49" s="76"/>
     </row>
-    <row r="50" spans="1:22" s="75" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" s="75" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A50" s="114" t="s">
         <v>5</v>
       </c>
@@ -22991,7 +23021,7 @@
       <c r="U50" s="77"/>
       <c r="V50" s="76"/>
     </row>
-    <row r="51" spans="1:22" s="75" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" s="75" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A51" s="81"/>
       <c r="B51" s="85" t="s">
         <v>482</v>
@@ -23016,7 +23046,7 @@
       <c r="U51" s="77"/>
       <c r="V51" s="76"/>
     </row>
-    <row r="52" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="112" t="s">
         <v>6</v>
       </c>
@@ -23041,7 +23071,7 @@
       <c r="U52" s="77"/>
       <c r="V52" s="76"/>
     </row>
-    <row r="53" spans="1:22" s="75" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" s="75" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="81"/>
       <c r="B53" s="82"/>
       <c r="C53" s="113" t="s">
@@ -23064,7 +23094,7 @@
       <c r="U53" s="77"/>
       <c r="V53" s="76"/>
     </row>
-    <row r="54" spans="1:22" s="75" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" s="75" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A54" s="81"/>
       <c r="B54" s="82"/>
       <c r="C54" s="113" t="s">
@@ -23087,7 +23117,7 @@
       <c r="U54" s="77"/>
       <c r="V54" s="76"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="130" t="s">
         <v>603</v>
       </c>
@@ -23099,7 +23129,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="132" t="s">
         <v>606</v>
       </c>
@@ -23113,7 +23143,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="133" t="s">
@@ -23121,7 +23151,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="133" t="s">
         <v>611</v>
@@ -23131,7 +23161,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="134" t="s">
@@ -23141,7 +23171,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="133" t="s">
@@ -23151,7 +23181,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="135" t="s">
         <v>617</v>
       </c>
@@ -23159,7 +23189,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="133" t="s">
@@ -23167,7 +23197,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="136" t="s">
         <v>619</v>
@@ -23177,7 +23207,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="133" t="s">
@@ -23185,7 +23215,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="133" t="s">
         <v>622</v>
@@ -23195,7 +23225,7 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="135" t="s">
         <v>624</v>
       </c>
@@ -23207,7 +23237,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="406" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="133" t="s">
@@ -23217,7 +23247,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="79"/>
       <c r="B68" s="80"/>
       <c r="C68" s="80"/>
@@ -23236,7 +23266,7 @@
       <c r="S68" s="80"/>
       <c r="U68" s="80"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="102"/>
       <c r="B69" s="82"/>
       <c r="C69" s="151" t="s">
@@ -23247,7 +23277,7 @@
       <c r="U69" s="76"/>
       <c r="V69" s="77"/>
     </row>
-    <row r="70" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="154" t="s">
         <v>759</v>
       </c>
@@ -23274,7 +23304,7 @@
       <c r="U70" s="77"/>
       <c r="V70" s="76"/>
     </row>
-    <row r="71" spans="1:22" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="154" t="s">
         <v>758</v>
       </c>
@@ -23301,7 +23331,7 @@
       <c r="U71" s="77"/>
       <c r="V71" s="76"/>
     </row>
-    <row r="72" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="155" t="s">
         <v>762</v>
       </c>
@@ -23324,7 +23354,7 @@
       <c r="U72" s="77"/>
       <c r="V72" s="76"/>
     </row>
-    <row r="73" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="81"/>
       <c r="B73" s="152" t="s">
         <v>760</v>
@@ -23349,7 +23379,7 @@
       <c r="U73" s="77"/>
       <c r="V73" s="76"/>
     </row>
-    <row r="74" spans="1:22" s="75" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" s="75" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="81"/>
       <c r="B74" s="82"/>
       <c r="C74" s="152" t="s">
@@ -23372,7 +23402,7 @@
       <c r="U74" s="77"/>
       <c r="V74" s="76"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="79"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -23391,7 +23421,7 @@
       <c r="S75" s="80"/>
       <c r="U75" s="80"/>
     </row>
-    <row r="76" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="102"/>
       <c r="B76" s="82"/>
       <c r="C76" s="156" t="s">
@@ -23402,7 +23432,7 @@
       <c r="U76" s="76"/>
       <c r="V76" s="77"/>
     </row>
-    <row r="77" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="158" t="s">
         <v>764</v>
       </c>
@@ -23425,7 +23455,7 @@
       <c r="U77" s="77"/>
       <c r="V77" s="76"/>
     </row>
-    <row r="78" spans="1:22" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="81"/>
       <c r="B78" s="82"/>
       <c r="C78" s="159" t="s">
@@ -23448,7 +23478,7 @@
       <c r="U78" s="77"/>
       <c r="V78" s="76"/>
     </row>
-    <row r="79" spans="1:22" s="75" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" s="75" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="81"/>
       <c r="B79" s="82"/>
       <c r="C79" s="159" t="s">
@@ -23471,7 +23501,7 @@
       <c r="U79" s="77"/>
       <c r="V79" s="76"/>
     </row>
-    <row r="80" spans="1:22" s="75" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" s="75" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A80" s="81"/>
       <c r="B80" s="159" t="s">
         <v>768</v>
@@ -23496,7 +23526,7 @@
       <c r="U80" s="77"/>
       <c r="V80" s="76"/>
     </row>
-    <row r="81" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="160" t="s">
         <v>769</v>
       </c>
@@ -23519,7 +23549,7 @@
       <c r="U81" s="77"/>
       <c r="V81" s="76"/>
     </row>
-    <row r="82" spans="1:22" s="75" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" s="75" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="81"/>
       <c r="B82" s="82"/>
       <c r="C82" s="159" t="s">
@@ -23542,7 +23572,7 @@
       <c r="U82" s="77"/>
       <c r="V82" s="76"/>
     </row>
-    <row r="83" spans="1:22" s="75" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" s="75" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="81"/>
       <c r="B83" s="82"/>
       <c r="C83" s="159" t="s">
@@ -23565,7 +23595,7 @@
       <c r="U83" s="77"/>
       <c r="V83" s="76"/>
     </row>
-    <row r="84" spans="1:22" s="75" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" s="75" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="81"/>
       <c r="B84" s="82"/>
       <c r="C84" s="159" t="s">
@@ -23588,7 +23618,7 @@
       <c r="U84" s="77"/>
       <c r="V84" s="76"/>
     </row>
-    <row r="85" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="81"/>
       <c r="B85" s="82"/>
       <c r="C85" s="159" t="s">
@@ -23611,7 +23641,7 @@
       <c r="U85" s="77"/>
       <c r="V85" s="76"/>
     </row>
-    <row r="86" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="81"/>
       <c r="B86" s="82"/>
       <c r="C86" s="159" t="s">
@@ -23634,7 +23664,7 @@
       <c r="U86" s="77"/>
       <c r="V86" s="76"/>
     </row>
-    <row r="87" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="160" t="s">
         <v>779</v>
       </c>
@@ -23657,7 +23687,7 @@
       <c r="U87" s="77"/>
       <c r="V87" s="76"/>
     </row>
-    <row r="88" spans="1:22" s="75" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" s="75" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="157" t="s">
         <v>780</v>
       </c>
@@ -23682,7 +23712,7 @@
       <c r="U88" s="77"/>
       <c r="V88" s="76"/>
     </row>
-    <row r="89" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="160" t="s">
         <v>778</v>
       </c>
@@ -23705,7 +23735,7 @@
       <c r="U89" s="77"/>
       <c r="V89" s="76"/>
     </row>
-    <row r="90" spans="1:22" s="75" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" s="75" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A90" s="157" t="s">
         <v>777</v>
       </c>
@@ -23730,7 +23760,7 @@
       <c r="U90" s="77"/>
       <c r="V90" s="76"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="79"/>
       <c r="B91" s="80"/>
       <c r="C91" s="80"/>
@@ -23749,7 +23779,7 @@
       <c r="S91" s="80"/>
       <c r="U91" s="80"/>
     </row>
-    <row r="92" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="102"/>
       <c r="B92" s="82"/>
       <c r="C92" s="156" t="s">
@@ -23760,7 +23790,7 @@
       <c r="U92" s="76"/>
       <c r="V92" s="77"/>
     </row>
-    <row r="93" spans="1:22" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="81"/>
       <c r="B93" s="82"/>
       <c r="C93" s="159" t="s">
@@ -23783,7 +23813,7 @@
       <c r="U93" s="77"/>
       <c r="V93" s="76"/>
     </row>
-    <row r="94" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="81"/>
       <c r="B94" s="82"/>
       <c r="C94" s="159" t="s">
@@ -23806,7 +23836,7 @@
       <c r="U94" s="77"/>
       <c r="V94" s="76"/>
     </row>
-    <row r="95" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="158" t="s">
         <v>784</v>
       </c>
@@ -23829,7 +23859,7 @@
       <c r="U95" s="77"/>
       <c r="V95" s="76"/>
     </row>
-    <row r="96" spans="1:22" s="75" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" s="75" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="81"/>
       <c r="B96" s="159" t="s">
         <v>786</v>
@@ -23854,7 +23884,7 @@
       <c r="U96" s="77"/>
       <c r="V96" s="76"/>
     </row>
-    <row r="97" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="158" t="s">
         <v>790</v>
       </c>
@@ -23877,7 +23907,7 @@
       <c r="U97" s="77"/>
       <c r="V97" s="76"/>
     </row>
-    <row r="98" spans="1:22" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="81"/>
       <c r="B98" s="82"/>
       <c r="C98" s="159" t="s">
@@ -23900,7 +23930,7 @@
       <c r="U98" s="77"/>
       <c r="V98" s="76"/>
     </row>
-    <row r="99" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="81"/>
       <c r="B99" s="159" t="s">
         <v>789</v>
@@ -23925,7 +23955,7 @@
       <c r="U99" s="77"/>
       <c r="V99" s="76"/>
     </row>
-    <row r="100" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="81"/>
       <c r="B100" s="82"/>
       <c r="C100" s="82"/>
@@ -23946,7 +23976,7 @@
       <c r="U100" s="77"/>
       <c r="V100" s="76"/>
     </row>
-    <row r="101" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="81"/>
       <c r="B101" s="82"/>
       <c r="C101" s="82"/>
@@ -23967,7 +23997,7 @@
       <c r="U101" s="77"/>
       <c r="V101" s="76"/>
     </row>
-    <row r="102" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="81"/>
       <c r="B102" s="82"/>
       <c r="C102" s="82"/>
@@ -23988,7 +24018,7 @@
       <c r="U102" s="77"/>
       <c r="V102" s="76"/>
     </row>
-    <row r="103" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="81"/>
       <c r="B103" s="82"/>
       <c r="C103" s="82"/>
@@ -24009,7 +24039,7 @@
       <c r="U103" s="77"/>
       <c r="V103" s="76"/>
     </row>
-    <row r="104" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="81"/>
       <c r="B104" s="82"/>
       <c r="C104" s="82"/>
@@ -24030,7 +24060,7 @@
       <c r="U104" s="77"/>
       <c r="V104" s="76"/>
     </row>
-    <row r="105" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="81"/>
       <c r="B105" s="82"/>
       <c r="C105" s="82"/>
@@ -24051,7 +24081,7 @@
       <c r="U105" s="77"/>
       <c r="V105" s="76"/>
     </row>
-    <row r="106" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="81"/>
       <c r="B106" s="82"/>
       <c r="C106" s="82"/>
@@ -24072,7 +24102,7 @@
       <c r="U106" s="77"/>
       <c r="V106" s="76"/>
     </row>
-    <row r="107" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="81"/>
       <c r="B107" s="82"/>
       <c r="C107" s="82"/>
@@ -24093,7 +24123,7 @@
       <c r="U107" s="77"/>
       <c r="V107" s="76"/>
     </row>
-    <row r="108" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="81"/>
       <c r="B108" s="82"/>
       <c r="C108" s="82"/>
@@ -24114,7 +24144,7 @@
       <c r="U108" s="77"/>
       <c r="V108" s="76"/>
     </row>
-    <row r="109" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="81"/>
       <c r="B109" s="82"/>
       <c r="C109" s="82"/>
@@ -24135,7 +24165,7 @@
       <c r="U109" s="77"/>
       <c r="V109" s="76"/>
     </row>
-    <row r="110" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="81"/>
       <c r="B110" s="82"/>
       <c r="C110" s="82"/>
@@ -24156,7 +24186,7 @@
       <c r="U110" s="77"/>
       <c r="V110" s="76"/>
     </row>
-    <row r="111" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="81"/>
       <c r="B111" s="82"/>
       <c r="C111" s="82"/>
@@ -24177,7 +24207,7 @@
       <c r="U111" s="77"/>
       <c r="V111" s="76"/>
     </row>
-    <row r="112" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="81"/>
       <c r="B112" s="82"/>
       <c r="C112" s="82"/>
@@ -24198,7 +24228,7 @@
       <c r="U112" s="77"/>
       <c r="V112" s="76"/>
     </row>
-    <row r="113" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="81"/>
       <c r="B113" s="82"/>
       <c r="C113" s="82"/>
@@ -24219,7 +24249,7 @@
       <c r="U113" s="77"/>
       <c r="V113" s="76"/>
     </row>
-    <row r="114" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="81"/>
       <c r="B114" s="82"/>
       <c r="C114" s="82"/>
@@ -24240,7 +24270,7 @@
       <c r="U114" s="77"/>
       <c r="V114" s="76"/>
     </row>
-    <row r="115" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="81"/>
       <c r="B115" s="82"/>
       <c r="C115" s="82"/>
@@ -24261,7 +24291,7 @@
       <c r="U115" s="77"/>
       <c r="V115" s="76"/>
     </row>
-    <row r="116" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="81"/>
       <c r="B116" s="82"/>
       <c r="C116" s="82"/>
@@ -24282,7 +24312,7 @@
       <c r="U116" s="77"/>
       <c r="V116" s="76"/>
     </row>
-    <row r="117" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="81"/>
       <c r="B117" s="82"/>
       <c r="C117" s="82"/>
@@ -24303,7 +24333,7 @@
       <c r="U117" s="77"/>
       <c r="V117" s="76"/>
     </row>
-    <row r="118" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="81"/>
       <c r="B118" s="82"/>
       <c r="C118" s="82"/>
@@ -24324,7 +24354,7 @@
       <c r="U118" s="77"/>
       <c r="V118" s="76"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="79"/>
       <c r="B119" s="80"/>
       <c r="C119" s="80"/>
@@ -24343,7 +24373,7 @@
       <c r="S119" s="80"/>
       <c r="U119" s="80"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="102"/>
       <c r="B120" s="82"/>
       <c r="C120" s="103" t="s">
@@ -24354,7 +24384,7 @@
       <c r="U120" s="76"/>
       <c r="V120" s="77"/>
     </row>
-    <row r="121" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="81"/>
       <c r="B121" s="77"/>
       <c r="C121" s="82"/>
@@ -24375,7 +24405,7 @@
       <c r="U121" s="77"/>
       <c r="V121" s="76"/>
     </row>
-    <row r="122" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B122" s="98" t="s">
         <v>521</v>
       </c>
@@ -24383,12 +24413,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="C123" s="112" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B124" s="92" t="s">
         <v>517</v>
       </c>
@@ -24396,17 +24426,17 @@
         <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C125" s="92" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="C126" s="92" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A127" s="93" t="s">
         <v>510</v>
       </c>
@@ -24420,12 +24450,12 @@
         <v>513</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="96" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="129" spans="3:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="C129" s="118" t="s">
         <v>562</v>
       </c>
@@ -24451,38 +24481,38 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -24501,7 +24531,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -24509,17 +24539,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C5" s="97" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C6" s="97" t="s">
         <v>520</v>
       </c>
@@ -24541,38 +24571,38 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="4"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -24591,17 +24621,17 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>403</v>
       </c>
@@ -24615,7 +24645,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>368</v>
       </c>
@@ -24624,7 +24654,7 @@
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>370</v>
       </c>
@@ -24633,68 +24663,68 @@
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C9" s="29"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="C12" s="45" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>383</v>
       </c>

--- a/4 четверть_5_JavaScript_Front - Fetch, FormData, form.xlsx
+++ b/4 четверть_5_JavaScript_Front - Fetch, FormData, form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A10147-1BC4-4C6F-B44D-FEF96BB22CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4A5D3-79BB-4938-9FFC-46860AA86F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="-20895" windowWidth="20745" windowHeight="20145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Построение HTML стр" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="799">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -15506,6 +15506,67 @@
   </si>
   <si>
     <t>`https://github.com/coreybutler/nvm-windows/releases</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div p (через пробел)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — выберет все параграфы &lt;p&gt; внутри &lt;div&gt;, включая вложенные на любую глубину
+&lt;div&gt;
+  &lt;p&gt;Выберется (прямой потомок)&lt;/p&gt;
+  &lt;section&gt;
+    &lt;p&gt;Выберется (вложенный через section)&lt;/p&gt;
+  &lt;/section&gt;
+&lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div &gt; p (с символом &gt;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — выберет только параграфы &lt;p&gt;, которые являются прямыми детьми &lt;div&gt; (без промежуточных элементов)
+&lt;div&gt;
+  &lt;p&gt;Выберется (прямой потомок)&lt;/p&gt;
+  &lt;section&gt;
+    &lt;p&gt;Не выберется (не прямой потомок div)&lt;/p&gt;
+  &lt;/section&gt;
+&lt;/div&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -16161,7 +16222,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -16652,6 +16713,9 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
@@ -16823,7 +16887,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3918419</xdr:colOff>
+      <xdr:colOff>3872699</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>1299882</xdr:rowOff>
     </xdr:to>
@@ -17102,7 +17166,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3932030</xdr:colOff>
+      <xdr:colOff>3871070</xdr:colOff>
       <xdr:row>208</xdr:row>
       <xdr:rowOff>261470</xdr:rowOff>
     </xdr:to>
@@ -18334,8 +18398,8 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18572,8 +18636,8 @@
   </sheetPr>
   <dimension ref="A1:V216"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18640,7 +18704,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -19163,7 +19227,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>69</v>
       </c>
@@ -19238,12 +19302,14 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" s="11" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="11" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="166" t="s">
+        <v>798</v>
+      </c>
+      <c r="C29" s="166" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="9"/>
@@ -19267,7 +19333,7 @@
       <c r="A30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="166" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -22036,7 +22102,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="133" t="s">
         <v>677</v>
       </c>
@@ -22228,7 +22294,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="148" t="s">
         <v>725</v>
       </c>
@@ -23071,7 +23137,7 @@
       <c r="U52" s="77"/>
       <c r="V52" s="76"/>
     </row>
-    <row r="53" spans="1:22" s="75" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" s="75" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A53" s="81"/>
       <c r="B53" s="82"/>
       <c r="C53" s="113" t="s">

--- a/4 четверть_5_JavaScript_Front - Fetch, FormData, form.xlsx
+++ b/4 четверть_5_JavaScript_Front - Fetch, FormData, form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4A5D3-79BB-4938-9FFC-46860AA86F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47413BF1-F8A5-4D9B-8623-5822C4783A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Построение HTML стр" sheetId="13" r:id="rId1"/>
@@ -25,11 +25,16 @@
     <sheet name="empty" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="800">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -15568,16 +15573,61 @@
 &lt;/div&gt;</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Пример
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">input[type="text"],
+input[type="email"],
+input[type="number"],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>textarea,
+fieldset {
+  width: 100%;
+  border: 1px solid #333;
+  box-sizing: border-box;
+}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16216,13 +16266,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -16240,129 +16290,144 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="43" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="33" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -16370,70 +16435,116 @@
     <xf numFmtId="49" fontId="32" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="28" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="16" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="15" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="12" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16442,89 +16553,31 @@
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="16" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="15" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="12" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16534,55 +16587,55 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -16590,11 +16643,11 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -16602,37 +16655,34 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="53" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -16641,40 +16691,49 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16683,28 +16742,22 @@
     <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -16718,9 +16771,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Гиперссылка 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Обычный 2 2" xfId="5" xr:uid="{9D308650-0A89-4105-96A8-58DE80020B06}"/>
     <cellStyle name="Обычный 3" xfId="4" xr:uid="{27A49A99-0B1E-4558-8AFD-A402678C2C0E}"/>
@@ -18035,10 +18088,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="164"/>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -18326,12 +18379,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -18636,8 +18689,8 @@
   </sheetPr>
   <dimension ref="A1:V216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18704,7 +18757,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -19227,7 +19280,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>69</v>
       </c>
@@ -19306,10 +19359,10 @@
       <c r="A29" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="164" t="s">
         <v>798</v>
       </c>
-      <c r="C29" s="166" t="s">
+      <c r="C29" s="164" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="9"/>
@@ -19333,7 +19386,7 @@
       <c r="A30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="164" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -19356,7 +19409,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" s="11" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="11" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
@@ -19404,7 +19457,9 @@
     </row>
     <row r="33" spans="1:22" s="11" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="167" t="s">
+        <v>799</v>
+      </c>
       <c r="C33" s="8" t="s">
         <v>81</v>
       </c>
@@ -19502,7 +19557,7 @@
       <c r="U36" s="8"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" spans="1:22" s="11" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="11" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
@@ -19749,7 +19804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>124</v>
       </c>
@@ -19963,7 +20018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>158</v>
       </c>
@@ -20336,7 +20391,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" ht="216" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>216</v>
       </c>
@@ -22102,7 +22157,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C5" s="133" t="s">
         <v>677</v>
       </c>
@@ -22294,7 +22349,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="148" t="s">
         <v>725</v>
       </c>
@@ -23137,7 +23192,7 @@
       <c r="U52" s="77"/>
       <c r="V52" s="76"/>
     </row>
-    <row r="53" spans="1:22" s="75" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" s="75" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="81"/>
       <c r="B53" s="82"/>
       <c r="C53" s="113" t="s">

--- a/4 четверть_5_JavaScript_Front - Fetch, FormData, form.xlsx
+++ b/4 четверть_5_JavaScript_Front - Fetch, FormData, form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47413BF1-F8A5-4D9B-8623-5822C4783A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0F293-F58B-40EF-ABC2-FC7E32ED2ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Построение HTML стр" sheetId="13" r:id="rId1"/>
@@ -25,11 +25,6 @@
     <sheet name="empty" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -7364,9 +7359,6 @@
       </rPr>
       <t>При клике на самый глубокий элемент срабатывают все обработчики событий его родителей в обратной последовательности</t>
     </r>
-  </si>
-  <si>
-    <t>Целевой DOM-элемент, на котором произошло событие</t>
   </si>
   <si>
     <t>Текущий DOM-элемент (элемент в момент всплытия), чьи обработчики в настоящее время обрабатываются. По мере того как происходит захват и всплытие событий, это значение изменяется</t>
@@ -8269,68 +8261,6 @@
       </rPr>
       <t xml:space="preserve">
 Это «текущий» элемент, до которого дошло всплытие, на нём сейчас выполняется обработчик.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Мое понимание! </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Это элемент, на котором произошло событие. На данном элементе может отсутствовать обработчик, в таком случае обработчик расположен на одном их его предков.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Это «целевой» элемент, на котором произошло событие, в процессе всплытия он неизменен.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Делегирование событий) Если устновлен единственный обработчик события на родительский элемент, то currentTarget будет всегда родительским элементом. Target будут те элементы, которые принадлежат родителю, на который повесили обработчик, и на которых прозошло то или иное событие!</t>
     </r>
   </si>
   <si>
@@ -15610,16 +15540,151 @@
 }</t>
     </r>
   </si>
+  <si>
+    <t>Целевой DOM-элемент, на котором произошло событие
+div.addEventListener('click', (e) =&gt; {
+  if (e.target === e.currentTarget) {
+    // Событие произошло именно на div, а не на потомке
+    handleDivClick();
+  }
+});</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Мое понимание! </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Это элемент, на котором произошло событие. На данном элементе может отсутствовать обработчик, в таком случае обработчик расположен на одном их его предков.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Это «целевой» элемент, на котором произошло событие, в процессе всплытия он неизменен.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Делегирование событий) Если устновлен единственный обработчик события на родительский элемент, то: 
+1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event.currentTarget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> будет всегда родитель (так как на нем повешен и сработал обработчик события благодаря всплытию события)
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event.target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (будет один из потомков или сам родитель) элемент, на котором произошло событие</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16266,13 +16331,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -16290,352 +16355,361 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="43" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="35" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="34" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="16" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="15" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="12" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="16" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="15" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="12" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -16643,46 +16717,37 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="54" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="56" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -16691,70 +16756,76 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16771,9 +16842,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Гиперссылка 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Обычный 2 2" xfId="5" xr:uid="{9D308650-0A89-4105-96A8-58DE80020B06}"/>
     <cellStyle name="Обычный 3" xfId="4" xr:uid="{27A49A99-0B1E-4558-8AFD-A402678C2C0E}"/>
@@ -18056,44 +18127,44 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="4"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="4"/>
+    <col min="21" max="21" width="67.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="165"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -18112,7 +18183,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>131</v>
       </c>
@@ -18120,9 +18191,9 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -18143,187 +18214,187 @@
       <c r="U4" s="2"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C9" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="60" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="14" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="B15" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="61" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C18" s="61" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C19" s="61" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="C20" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="63" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C22" s="61" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C24" s="61" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C25" s="61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C26" s="61" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="61" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="65" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
-        <v>429</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="61" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="61" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="61" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="61" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="61" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C24" s="61" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="C25" s="61" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C26" s="61" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="64" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="61" t="s">
+    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C30" s="61" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C31" s="61" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C30" s="61" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="62" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C31" s="61" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="61" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="61" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="61" t="s">
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="61" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="61" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="61" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="61" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="61" t="s">
+    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C39" s="61" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
+    <row r="40" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="C40" s="61" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C39" s="61" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C40" s="61" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -18347,46 +18418,46 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="4"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="4"/>
+    <col min="21" max="21" width="67.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -18405,7 +18476,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -18413,7 +18484,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -18455,42 +18526,42 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="4"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="4"/>
+    <col min="21" max="21" width="67.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -18509,13 +18580,13 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>13</v>
@@ -18524,7 +18595,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>285</v>
       </c>
@@ -18551,7 +18622,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>288</v>
       </c>
@@ -18563,7 +18634,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>290</v>
       </c>
@@ -18575,7 +18646,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>293</v>
       </c>
@@ -18589,7 +18660,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>297</v>
       </c>
@@ -18601,7 +18672,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>300</v>
       </c>
@@ -18613,7 +18684,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>302</v>
       </c>
@@ -18625,7 +18696,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>305</v>
       </c>
@@ -18637,14 +18708,14 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="8" t="s">
         <v>1</v>
@@ -18653,17 +18724,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="140" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -18689,42 +18760,42 @@
   </sheetPr>
   <dimension ref="A1:V216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="12"/>
-    <col min="21" max="21" width="67.77734375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="9" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="9" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="9" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="9" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="39.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="12"/>
+    <col min="21" max="21" width="67.81640625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="9" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="9" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="9" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -18743,7 +18814,7 @@
       <c r="S1" s="14"/>
       <c r="U1" s="14"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -18757,7 +18828,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -18771,7 +18842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -18782,12 +18853,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="8" t="s">
         <v>26</v>
@@ -18814,7 +18885,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -18837,7 +18908,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -18864,7 +18935,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -18887,7 +18958,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -18910,7 +18981,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="8" t="s">
         <v>35</v>
@@ -18937,7 +19008,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -18960,7 +19031,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -18981,7 +19052,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -19000,7 +19071,7 @@
       <c r="S14" s="14"/>
       <c r="U14" s="14"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -19014,7 +19085,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -19039,7 +19110,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -19064,7 +19135,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" s="11" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="11" customFormat="1" ht="232" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="8" t="s">
         <v>45</v>
@@ -19089,7 +19160,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>47</v>
       </c>
@@ -19116,7 +19187,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
@@ -19141,7 +19212,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" s="11" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="11" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
@@ -19170,7 +19241,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -19197,7 +19268,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>
@@ -19226,7 +19297,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>63</v>
       </c>
@@ -19253,7 +19324,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -19280,7 +19351,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>69</v>
       </c>
@@ -19305,7 +19376,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" s="11" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="11" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>71</v>
       </c>
@@ -19332,7 +19403,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
@@ -19355,12 +19426,12 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" s="11" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="11" customFormat="1" ht="261" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="164" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C29" s="164" t="s">
         <v>75</v>
@@ -19382,7 +19453,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>76</v>
       </c>
@@ -19409,7 +19480,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" s="11" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="11" customFormat="1" ht="290" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
@@ -19432,7 +19503,7 @@
       <c r="U31" s="8"/>
       <c r="V31" s="9"/>
     </row>
-    <row r="32" spans="1:22" s="11" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" s="11" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32" s="18"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
@@ -19455,10 +19526,10 @@
       <c r="U32" s="8"/>
       <c r="V32" s="9"/>
     </row>
-    <row r="33" spans="1:22" s="11" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" s="11" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
-      <c r="B33" s="167" t="s">
-        <v>799</v>
+      <c r="B33" s="165" t="s">
+        <v>797</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>81</v>
@@ -19480,7 +19551,7 @@
       <c r="U33" s="8"/>
       <c r="V33" s="9"/>
     </row>
-    <row r="34" spans="1:22" s="11" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" s="11" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
@@ -19503,9 +19574,9 @@
       <c r="U34" s="8"/>
       <c r="V34" s="9"/>
     </row>
-    <row r="35" spans="1:22" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="52" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="8" t="s">
@@ -19528,18 +19599,18 @@
       <c r="U35" s="8"/>
       <c r="V35" s="9"/>
     </row>
-    <row r="36" spans="1:22" s="11" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" s="11" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A36" s="56" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8"/>
@@ -19557,7 +19628,7 @@
       <c r="U36" s="8"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" spans="1:22" s="11" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="11" customFormat="1" ht="203" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
@@ -19586,7 +19657,7 @@
       <c r="U37" s="8"/>
       <c r="V37" s="9"/>
     </row>
-    <row r="38" spans="1:22" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>90</v>
       </c>
@@ -19615,7 +19686,7 @@
       <c r="U38" s="8"/>
       <c r="V38" s="9"/>
     </row>
-    <row r="39" spans="1:22" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>94</v>
       </c>
@@ -19638,7 +19709,7 @@
       <c r="U39" s="8"/>
       <c r="V39" s="9"/>
     </row>
-    <row r="40" spans="1:22" s="11" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" s="11" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>95</v>
       </c>
@@ -19665,7 +19736,7 @@
       <c r="U40" s="8"/>
       <c r="V40" s="9"/>
     </row>
-    <row r="41" spans="1:22" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>98</v>
       </c>
@@ -19692,7 +19763,7 @@
       <c r="U41" s="8"/>
       <c r="V41" s="9"/>
     </row>
-    <row r="42" spans="1:22" s="11" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" s="11" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>101</v>
       </c>
@@ -19717,7 +19788,7 @@
       <c r="U42" s="8"/>
       <c r="V42" s="9"/>
     </row>
-    <row r="43" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>103</v>
       </c>
@@ -19728,7 +19799,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>106</v>
       </c>
@@ -19739,7 +19810,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>109</v>
       </c>
@@ -19750,12 +19821,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C46" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>113</v>
       </c>
@@ -19763,7 +19834,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>115</v>
       </c>
@@ -19774,7 +19845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>117</v>
       </c>
@@ -19785,7 +19856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>120</v>
       </c>
@@ -19793,48 +19864,48 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="35" t="s">
         <v>122</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B52"/>
       <c r="C52" s="127" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A53" s="127" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B53" s="127" t="s">
+        <v>590</v>
+      </c>
+      <c r="C53" s="127" t="s">
         <v>592</v>
       </c>
-      <c r="C53" s="127" t="s">
-        <v>594</v>
-      </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>127</v>
       </c>
@@ -19843,17 +19914,17 @@
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>39</v>
       </c>
@@ -19861,12 +19932,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>131</v>
@@ -19878,59 +19949,59 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C62" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" s="52" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C65" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C66" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C68" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C69" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -19949,7 +20020,7 @@
       <c r="S71" s="14"/>
       <c r="U71" s="14"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>143</v>
       </c>
@@ -19963,7 +20034,7 @@
       <c r="U72" s="9"/>
       <c r="V72" s="8"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>145</v>
       </c>
@@ -19977,7 +20048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>148</v>
       </c>
@@ -19985,7 +20056,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>150</v>
       </c>
@@ -19996,7 +20067,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>152</v>
       </c>
@@ -20007,7 +20078,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>155</v>
       </c>
@@ -20018,7 +20089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
         <v>158</v>
       </c>
@@ -20029,33 +20100,33 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="C80" s="41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>163</v>
       </c>
@@ -20063,7 +20134,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>165</v>
       </c>
@@ -20074,7 +20145,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>10</v>
       </c>
@@ -20085,20 +20156,20 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="37" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="128" t="s">
+        <v>593</v>
+      </c>
+      <c r="C86" s="128" t="s">
         <v>595</v>
       </c>
-      <c r="C86" s="128" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
         <v>170</v>
       </c>
@@ -20106,7 +20177,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>172</v>
       </c>
@@ -20117,7 +20188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>174</v>
       </c>
@@ -20128,7 +20199,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>176</v>
       </c>
@@ -20139,7 +20210,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>179</v>
       </c>
@@ -20150,7 +20221,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>182</v>
       </c>
@@ -20161,10 +20232,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -20183,7 +20254,7 @@
       <c r="S94" s="14"/>
       <c r="U94" s="14"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>185</v>
       </c>
@@ -20197,7 +20268,7 @@
       <c r="U95" s="9"/>
       <c r="V95" s="8"/>
     </row>
-    <row r="96" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="22" t="s">
         <v>187</v>
       </c>
@@ -20214,7 +20285,7 @@
       <c r="U96" s="9"/>
       <c r="V96" s="8"/>
     </row>
-    <row r="97" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
         <v>191</v>
       </c>
@@ -20228,7 +20299,7 @@
       <c r="U97" s="9"/>
       <c r="V97" s="8"/>
     </row>
-    <row r="98" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>194</v>
       </c>
@@ -20242,18 +20313,18 @@
       <c r="U98" s="9"/>
       <c r="V98" s="8"/>
     </row>
-    <row r="99" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="8"/>
     </row>
-    <row r="100" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>197</v>
       </c>
@@ -20270,7 +20341,7 @@
       <c r="U100" s="9"/>
       <c r="V100" s="8"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -20290,7 +20361,7 @@
       <c r="U101" s="14"/>
       <c r="V101" s="8"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>201</v>
       </c>
@@ -20302,7 +20373,7 @@
       </c>
       <c r="V102" s="8"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>203</v>
       </c>
@@ -20311,7 +20382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>204</v>
       </c>
@@ -20325,7 +20396,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>207</v>
       </c>
@@ -20339,7 +20410,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="30" t="s">
         <v>210</v>
       </c>
@@ -20350,7 +20421,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="30" t="s">
         <v>313</v>
       </c>
@@ -20362,28 +20433,28 @@
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="55" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B109" s="30"/>
       <c r="C109" s="54" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" s="24" t="s">
         <v>213</v>
       </c>
       <c r="C110" s="16"/>
     </row>
-    <row r="111" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B111" s="8" t="s">
         <v>214</v>
       </c>
@@ -20391,7 +20462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>216</v>
       </c>
@@ -20402,10 +20473,10 @@
         <v>218</v>
       </c>
       <c r="D112" s="116" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A113" s="30" t="s">
         <v>312</v>
       </c>
@@ -20419,12 +20490,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P114" s="9"/>
       <c r="U114" s="9"/>
       <c r="V114" s="8"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -20444,7 +20515,7 @@
       <c r="U115" s="14"/>
       <c r="V115" s="8"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>221</v>
       </c>
@@ -20458,7 +20529,7 @@
       <c r="U116" s="9"/>
       <c r="V116" s="8"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117" s="16" t="s">
         <v>223</v>
       </c>
@@ -20472,7 +20543,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>227</v>
       </c>
@@ -20483,7 +20554,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119" s="16" t="s">
         <v>230</v>
       </c>
@@ -20494,7 +20565,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>233</v>
       </c>
@@ -20508,7 +20579,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>237</v>
       </c>
@@ -20519,7 +20590,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>240</v>
       </c>
@@ -20530,7 +20601,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>243</v>
       </c>
@@ -20541,7 +20612,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>246</v>
       </c>
@@ -20552,7 +20623,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="94" t="s">
         <v>249</v>
       </c>
@@ -20563,7 +20634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -20582,12 +20653,12 @@
       <c r="S127" s="14"/>
       <c r="U127" s="14"/>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>252</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>17</v>
@@ -20596,17 +20667,17 @@
       <c r="U128" s="9"/>
       <c r="V128" s="8"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="124" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B130" s="124" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C130" s="124" t="s">
         <v>309</v>
@@ -20615,41 +20686,41 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="125" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B131" s="124" t="s">
+        <v>577</v>
+      </c>
+      <c r="C131" s="30"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="124" t="s">
+        <v>575</v>
+      </c>
+      <c r="B132" s="124" t="s">
+        <v>578</v>
+      </c>
+      <c r="C132" s="124" t="s">
         <v>579</v>
       </c>
-      <c r="C131" s="30"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="124" t="s">
-        <v>577</v>
-      </c>
-      <c r="B132" s="124" t="s">
-        <v>580</v>
-      </c>
-      <c r="C132" s="124" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B133" s="36" t="s">
         <v>255</v>
       </c>
       <c r="C133" s="37"/>
     </row>
-    <row r="134" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>256</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>257</v>
@@ -20658,9 +20729,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B135" s="36" t="s">
         <v>259</v>
@@ -20670,7 +20741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>260</v>
       </c>
@@ -20681,44 +20752,44 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="48" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B138" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C138" s="35" t="s">
         <v>364</v>
-      </c>
-      <c r="C138" s="35" t="s">
-        <v>365</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A139" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B139" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="B139" s="35" t="s">
-        <v>367</v>
-      </c>
       <c r="C139" s="35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>265</v>
       </c>
@@ -20726,21 +20797,21 @@
         <v>266</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>279</v>
       </c>
@@ -20754,7 +20825,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B143" s="8" t="s">
         <v>282</v>
       </c>
@@ -20765,11 +20836,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C144" s="34"/>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -20788,12 +20859,12 @@
       <c r="S145" s="14"/>
       <c r="U145" s="14"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>252</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>17</v>
@@ -20802,18 +20873,18 @@
       <c r="U146" s="9"/>
       <c r="V146" s="8"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>267</v>
       </c>
       <c r="C147" s="37"/>
     </row>
-    <row r="148" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B148" s="56" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>268</v>
@@ -20822,122 +20893,122 @@
         <v>269</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>270</v>
       </c>
       <c r="C150" s="56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D150" s="56" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A151" s="125" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B151" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="C151" s="56" t="s">
         <v>409</v>
       </c>
-      <c r="C151" s="56" t="s">
-        <v>411</v>
-      </c>
       <c r="D151" s="56" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" s="124" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B152" s="124" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C152" s="124" t="s">
+        <v>579</v>
+      </c>
+      <c r="D152" s="56"/>
+    </row>
+    <row r="153" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="129" t="s">
+        <v>596</v>
+      </c>
+      <c r="B153" s="129" t="s">
+        <v>598</v>
+      </c>
+      <c r="C153" s="129" t="s">
+        <v>599</v>
+      </c>
+      <c r="D153" s="56"/>
+    </row>
+    <row r="154" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="129" t="s">
+        <v>597</v>
+      </c>
+      <c r="B154" s="129" t="s">
+        <v>598</v>
+      </c>
+      <c r="C154" s="129" t="s">
+        <v>600</v>
+      </c>
+      <c r="D154" s="56"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A155" s="129" t="s">
         <v>581</v>
-      </c>
-      <c r="D152" s="56"/>
-    </row>
-    <row r="153" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="129" t="s">
-        <v>598</v>
-      </c>
-      <c r="B153" s="129" t="s">
-        <v>600</v>
-      </c>
-      <c r="C153" s="129" t="s">
-        <v>601</v>
-      </c>
-      <c r="D153" s="56"/>
-    </row>
-    <row r="154" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="129" t="s">
-        <v>599</v>
-      </c>
-      <c r="B154" s="129" t="s">
-        <v>600</v>
-      </c>
-      <c r="C154" s="129" t="s">
-        <v>602</v>
-      </c>
-      <c r="D154" s="56"/>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A155" s="129" t="s">
-        <v>583</v>
       </c>
       <c r="B155" s="124"/>
       <c r="C155" s="125" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D155" s="56"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A156" s="126" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B156" s="124"/>
       <c r="C156" s="125" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D156" s="56"/>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A157" s="126" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B157" s="124"/>
       <c r="C157" s="125" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D157" s="56"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A158" s="126" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B158" s="124"/>
       <c r="C158" s="125" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D158" s="56"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A159" s="59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
       <c r="D159" s="56"/>
     </row>
-    <row r="160" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A160" s="57" t="s">
         <v>271</v>
       </c>
@@ -20951,7 +21022,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A161" s="125" t="s">
         <v>274</v>
       </c>
@@ -20960,7 +21031,7 @@
       </c>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>276</v>
       </c>
@@ -20969,10 +21040,10 @@
       </c>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -20991,7 +21062,7 @@
       <c r="S164" s="14"/>
       <c r="U164" s="14"/>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>252</v>
       </c>
@@ -21003,36 +21074,36 @@
       <c r="U165" s="9"/>
       <c r="V165" s="8"/>
     </row>
-    <row r="166" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D166" s="39"/>
       <c r="P166" s="9"/>
       <c r="U166" s="9"/>
       <c r="V166" s="8"/>
     </row>
-    <row r="167" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C167" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D167" s="39"/>
       <c r="P167" s="9"/>
       <c r="U167" s="9"/>
       <c r="V167" s="8"/>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168" s="40" t="s">
         <v>320</v>
       </c>
       <c r="C168" s="37"/>
     </row>
-    <row r="169" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C169" s="35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="B170" s="35" t="s">
         <v>323</v>
       </c>
@@ -21043,7 +21114,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>324</v>
       </c>
@@ -21051,107 +21122,107 @@
         <v>325</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A172" s="44" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A173" s="95"/>
-      <c r="B173" s="94" t="s">
-        <v>511</v>
-      </c>
-      <c r="C173" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B173" s="166" t="s">
+        <v>509</v>
+      </c>
+      <c r="C173" s="166" t="s">
+        <v>799</v>
+      </c>
+      <c r="D173" s="166" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A174" s="122" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B174" s="94"/>
       <c r="C174" s="35"/>
       <c r="D174" s="35"/>
     </row>
-    <row r="175" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="95"/>
       <c r="B175" s="94"/>
       <c r="C175" s="123" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D175" s="35"/>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A176" s="122" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B176" s="94"/>
       <c r="C176" s="35"/>
       <c r="D176" s="35"/>
     </row>
-    <row r="177" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A177" s="95"/>
       <c r="B177" s="116" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C177" s="118" t="s">
+        <v>561</v>
+      </c>
+      <c r="D177" s="116" t="s">
         <v>563</v>
       </c>
-      <c r="D177" s="116" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="8"/>
     </row>
-    <row r="179" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B179" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="44" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B181" s="35"/>
       <c r="C181" s="35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C182" s="35" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C182" s="35" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C183" s="35"/>
     </row>
-    <row r="184" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C184" s="49" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B185" s="41" t="s">
         <v>271</v>
@@ -21160,137 +21231,137 @@
         <v>326</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C186" s="35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="B186" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C186" s="35" t="s">
+      <c r="B187" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C187" s="35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="B187" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="C187" s="35" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B188" s="35"/>
       <c r="C188" s="35"/>
     </row>
-    <row r="189" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A189" s="35"/>
       <c r="B189" s="49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C189" s="49" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A190" s="35"/>
       <c r="B190" s="35"/>
       <c r="C190" s="35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A192" s="53" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="53" t="s">
+      <c r="B192" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="B192" s="35" t="s">
+      <c r="C192" s="35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C192" s="35" t="s">
+      <c r="C193" s="35" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="C193" s="35" t="s">
+    <row r="194" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="39" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="194" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A194" s="39" t="s">
+      <c r="B194" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C194" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="B194" s="35" t="s">
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A195" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="C194" s="35" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A195" s="40" t="s">
-        <v>348</v>
-      </c>
       <c r="C195" s="37"/>
     </row>
-    <row r="196" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C196" s="35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B197" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C197" s="35" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B197" s="35" t="s">
+    <row r="198" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="C198" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="C197" s="35" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="35" t="s">
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A199" s="44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="B200" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C198" s="35" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A199" s="44" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B200" s="35" t="s">
+      <c r="C200" s="169" t="s">
         <v>356</v>
       </c>
-      <c r="C200" s="35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A201" s="44" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C202" s="35" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="203" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -21311,7 +21382,7 @@
       <c r="U203" s="8"/>
       <c r="V203" s="9"/>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -21330,108 +21401,108 @@
       <c r="S204" s="14"/>
       <c r="U204" s="14"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A205" s="107"/>
       <c r="C205" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D205" s="39"/>
       <c r="P205" s="9"/>
       <c r="U205" s="9"/>
       <c r="V205" s="8"/>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A206" s="109" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="C207" s="110" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="111" t="s">
+        <v>544</v>
+      </c>
+      <c r="B208" s="110" t="s">
+        <v>546</v>
+      </c>
+      <c r="C208" s="110" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="111" t="s">
+        <v>543</v>
+      </c>
+      <c r="C209" s="110" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A210" s="111" t="s">
+        <v>547</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C210" s="110" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="108" t="s">
+        <v>531</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="108" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C207" s="110" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="208" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A208" s="111" t="s">
-        <v>546</v>
-      </c>
-      <c r="B208" s="110" t="s">
-        <v>548</v>
-      </c>
-      <c r="C208" s="110" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A209" s="111" t="s">
-        <v>545</v>
-      </c>
-      <c r="C209" s="110" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="111" t="s">
-        <v>549</v>
-      </c>
-      <c r="B210" s="15" t="s">
+      <c r="B212" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="C212" s="110" t="s">
         <v>550</v>
       </c>
-      <c r="C210" s="110" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="111" t="s">
+        <v>533</v>
+      </c>
+      <c r="B213" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="C213" s="110" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="108" t="s">
+        <v>534</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="C214" s="111" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="111" t="s">
+        <v>535</v>
+      </c>
+      <c r="C215" s="110" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="108" t="s">
-        <v>533</v>
-      </c>
-      <c r="B211" s="20" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="108" t="s">
-        <v>534</v>
-      </c>
-      <c r="B212" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="C212" s="110" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="111" t="s">
-        <v>535</v>
-      </c>
-      <c r="B213" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C213" s="110" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="108" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="108" t="s">
         <v>536</v>
-      </c>
-      <c r="B214" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="C214" s="111" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="111" t="s">
-        <v>537</v>
-      </c>
-      <c r="C215" s="110" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="108" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -21456,62 +21527,62 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="4"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="4"/>
+    <col min="21" max="21" width="67.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" s="133" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B2" s="133" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2" s="138" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B3" s="133" t="s">
         <v>692</v>
       </c>
-      <c r="C1" s="138" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
-        <v>693</v>
-      </c>
-      <c r="C2" s="138" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
-        <v>694</v>
-      </c>
       <c r="C3" s="138" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -21530,157 +21601,157 @@
       <c r="S5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C6" s="138" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="130" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="133" t="s">
+        <v>627</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="132" t="s">
+        <v>642</v>
+      </c>
+      <c r="B9" s="133" t="s">
         <v>629</v>
       </c>
-      <c r="C8" s="133" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
-        <v>644</v>
-      </c>
-      <c r="B9" s="133" t="s">
-        <v>631</v>
-      </c>
       <c r="C9" s="133" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="135" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
     </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="132" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="132" t="s">
+        <v>640</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="138" t="s">
         <v>641</v>
       </c>
-      <c r="B11" s="133" t="s">
-        <v>630</v>
-      </c>
-      <c r="C11" s="133" t="s">
+      <c r="C13" s="133"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C14" s="133" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="132" t="s">
+        <v>632</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="132" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" s="133" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="132" t="s">
+        <v>635</v>
+      </c>
+      <c r="C17" s="133" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="132" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="137" t="s">
+        <v>644</v>
+      </c>
+      <c r="C18" s="133"/>
+    </row>
+    <row r="19" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A19" s="132" t="s">
         <v>642</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C19" s="133" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" s="135" t="s">
+        <v>633</v>
+      </c>
+      <c r="C20" s="133" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" s="138" t="s">
+        <v>650</v>
+      </c>
+      <c r="C21" s="133" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" s="132" t="s">
+        <v>632</v>
+      </c>
+      <c r="C22" s="133" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" s="132" t="s">
+        <v>632</v>
+      </c>
+      <c r="C23" s="133" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
-        <v>643</v>
-      </c>
-      <c r="C13" s="133"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C14" s="133" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="132" t="s">
-        <v>634</v>
-      </c>
-      <c r="C15" s="133" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="132" t="s">
-        <v>634</v>
-      </c>
-      <c r="C16" s="133" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="132" t="s">
-        <v>637</v>
-      </c>
-      <c r="C17" s="133" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="137" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" s="132" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" s="133" t="s">
         <v>646</v>
       </c>
-      <c r="C18" s="133"/>
-    </row>
-    <row r="19" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="132" t="s">
-        <v>644</v>
-      </c>
-      <c r="C19" s="133" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="135" t="s">
-        <v>635</v>
-      </c>
-      <c r="C20" s="133" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="138" t="s">
-        <v>652</v>
-      </c>
-      <c r="C21" s="133" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="132" t="s">
-        <v>634</v>
-      </c>
-      <c r="C22" s="133" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="132" t="s">
-        <v>634</v>
-      </c>
-      <c r="C23" s="133" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="132" t="s">
-        <v>634</v>
-      </c>
-      <c r="C24" s="133" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -21699,122 +21770,122 @@
       <c r="S26" s="6"/>
       <c r="U26" s="6"/>
     </row>
-    <row r="27" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C27" s="138" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="P27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="134" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C29" s="133" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="C30" s="133" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31" s="134" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C29" s="133" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C32" s="133" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="C33" s="133" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C30" s="133" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" s="134" t="s">
+        <v>655</v>
+      </c>
+      <c r="C34" s="137" t="s">
+        <v>664</v>
+      </c>
+      <c r="D34" s="137" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C35" s="133" t="s">
+        <v>669</v>
+      </c>
+      <c r="D35" s="133" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" s="135" t="s">
+        <v>633</v>
+      </c>
+      <c r="C36" s="133" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" s="138" t="s">
+        <v>668</v>
+      </c>
+      <c r="C37" s="133" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="132" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C32" s="133" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C33" s="133" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="134" t="s">
-        <v>657</v>
-      </c>
-      <c r="C34" s="137" t="s">
-        <v>666</v>
-      </c>
-      <c r="D34" s="137" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="C35" s="133" t="s">
-        <v>671</v>
-      </c>
-      <c r="D35" s="133" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="135" t="s">
-        <v>635</v>
-      </c>
-      <c r="C36" s="133" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="138" t="s">
+      <c r="B38" s="133" t="s">
         <v>670</v>
       </c>
-      <c r="C37" s="133" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="132" t="s">
-        <v>634</v>
-      </c>
-      <c r="B38" s="133" t="s">
-        <v>672</v>
-      </c>
       <c r="C38" s="133" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D38" s="133" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="132"/>
       <c r="B39" s="1"/>
       <c r="C39" s="133" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D39" s="133" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="133"/>
       <c r="B40" s="1"/>
       <c r="C40" s="133" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D40" s="133" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="133" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C41" s="133" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -21833,92 +21904,92 @@
       <c r="S42" s="6"/>
       <c r="U42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C43" s="138" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="140" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="141" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="133"/>
     </row>
-    <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C47" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A48" s="141" t="s">
         <v>698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="141" t="s">
-        <v>700</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C49" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="141" t="s">
+        <v>699</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C51" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A52" s="140" t="s">
         <v>701</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C51" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" s="140" t="s">
+    </row>
+    <row r="53" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C53" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C54" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C53" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="C54" s="2" t="s">
+    <row r="55" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="142" t="s">
+        <v>706</v>
+      </c>
+      <c r="C55" s="142" t="s">
+        <v>704</v>
+      </c>
+      <c r="D55" s="142" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B55" s="142" t="s">
-        <v>708</v>
-      </c>
-      <c r="C55" s="142" t="s">
-        <v>706</v>
-      </c>
-      <c r="D55" s="142" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -21937,121 +22008,121 @@
       <c r="S56" s="6"/>
       <c r="U56" s="6"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C57" s="146" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="P57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="147" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="150" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C60" s="144" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A61" s="150" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="B62" s="144" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A61" s="150" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="144" t="s">
+      <c r="C62" s="144" t="s">
         <v>731</v>
       </c>
-      <c r="C62" s="144" t="s">
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A63" s="149" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" s="149" t="s">
+    <row r="64" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="144" t="s">
+        <v>740</v>
+      </c>
+      <c r="C64" s="144" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="148" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B64" s="144" t="s">
+      <c r="C65" s="144" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="148" t="s">
+        <v>737</v>
+      </c>
+      <c r="C66" s="144" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="148" t="s">
+        <v>736</v>
+      </c>
+      <c r="C67" s="144" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="148" t="s">
+        <v>743</v>
+      </c>
+      <c r="B68" s="144" t="s">
+        <v>747</v>
+      </c>
+      <c r="C68" s="144" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="148" t="s">
+        <v>744</v>
+      </c>
+      <c r="B69" s="144" t="s">
+        <v>748</v>
+      </c>
+      <c r="C69" s="144" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="148" t="s">
+        <v>741</v>
+      </c>
+      <c r="B70" s="144" t="s">
+        <v>749</v>
+      </c>
+      <c r="C70" s="144" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="148" t="s">
         <v>742</v>
       </c>
-      <c r="C64" s="144" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="148" t="s">
-        <v>737</v>
-      </c>
-      <c r="C65" s="144" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="148" t="s">
-        <v>739</v>
-      </c>
-      <c r="C66" s="144" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="148" t="s">
-        <v>738</v>
-      </c>
-      <c r="C67" s="144" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="148" t="s">
-        <v>745</v>
-      </c>
-      <c r="B68" s="144" t="s">
-        <v>749</v>
-      </c>
-      <c r="C68" s="144" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="148" t="s">
+      <c r="B71" s="144" t="s">
+        <v>750</v>
+      </c>
+      <c r="C71" s="144" t="s">
         <v>746</v>
-      </c>
-      <c r="B69" s="144" t="s">
-        <v>750</v>
-      </c>
-      <c r="C69" s="144" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="148" t="s">
-        <v>743</v>
-      </c>
-      <c r="B70" s="144" t="s">
-        <v>751</v>
-      </c>
-      <c r="C70" s="144" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="148" t="s">
-        <v>744</v>
-      </c>
-      <c r="B71" s="144" t="s">
-        <v>752</v>
-      </c>
-      <c r="C71" s="144" t="s">
-        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -22071,38 +22142,38 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="4"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="4"/>
+    <col min="21" max="21" width="67.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -22121,17 +22192,17 @@
       <c r="S1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C2" s="138" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="130" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -22152,68 +22223,68 @@
       <c r="U3" s="2"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="C4" s="133" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C5" s="133" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="139" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C5" s="133" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="139" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="133" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C7" s="133" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="132" t="s">
+        <v>678</v>
+      </c>
+      <c r="C8" s="133" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
-        <v>680</v>
-      </c>
-      <c r="C8" s="133" t="s">
+      <c r="D8" s="133" t="s">
         <v>686</v>
       </c>
-      <c r="D8" s="133" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="132" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C9" s="133" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="139" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="C11" s="133" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="132" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="132" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -22234,38 +22305,38 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="4"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="4"/>
+    <col min="21" max="21" width="67.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -22284,11 +22355,11 @@
       <c r="S1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="143" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
@@ -22307,85 +22378,85 @@
       <c r="U2" s="2"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="75.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="144"/>
       <c r="C3" s="144" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="C4" s="144" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="149" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C6" s="144" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="149" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" s="144" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="144" t="s">
+    <row r="8" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B8" s="144" t="s">
+        <v>718</v>
+      </c>
+      <c r="C8" s="144" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B9" s="144" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="148" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="149" t="s">
+      <c r="B10" s="144" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="145" t="s">
+        <v>709</v>
+      </c>
+      <c r="D10" s="144" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="148" t="s">
+        <v>724</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>725</v>
+      </c>
+      <c r="C11" s="145" t="s">
+        <v>709</v>
+      </c>
+      <c r="D11" s="144"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B12" s="144" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="B13" s="144" t="s">
         <v>716</v>
       </c>
-      <c r="B7" s="144" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="144" t="s">
-        <v>720</v>
-      </c>
-      <c r="C8" s="144" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="144" t="s">
+      <c r="C13" s="144" t="s">
         <v>717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="148" t="s">
-        <v>725</v>
-      </c>
-      <c r="B10" s="144" t="s">
-        <v>728</v>
-      </c>
-      <c r="C10" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D10" s="144" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="148" t="s">
-        <v>726</v>
-      </c>
-      <c r="B11" s="144" t="s">
-        <v>727</v>
-      </c>
-      <c r="C11" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D11" s="144"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="144" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="144" t="s">
-        <v>718</v>
-      </c>
-      <c r="C13" s="144" t="s">
-        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -22405,80 +22476,80 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="76" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="77" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="77" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="76" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="75" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="77" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="76" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="76" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="75" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="76" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="76" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="76" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="76" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="75" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="77" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="77" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="77" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="76" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="78"/>
-    <col min="21" max="21" width="67.77734375" style="77" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="76" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="76" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="76" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="76" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="76" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="76"/>
+    <col min="2" max="2" width="50.54296875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="76" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="75" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="77" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="76" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="76" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="75" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="76" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="76" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="76" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="76" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="75" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="77" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="77" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="77" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="76" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="78"/>
+    <col min="21" max="21" width="67.81640625" style="77" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="76" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="76" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="76" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="76" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="76" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="77"/>
       <c r="D1" s="77"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="91" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D2" s="89"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="90" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D3" s="89"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="162" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B4" s="89"/>
       <c r="C4" s="90"/>
       <c r="D4" s="89"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="89"/>
       <c r="B5" s="163" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C5" s="161" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D5" s="89"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="89"/>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -22501,12 +22572,12 @@
       <c r="T7" s="12"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="101" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="11"/>
@@ -22518,12 +22589,12 @@
       <c r="T8" s="12"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="68" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="11"/>
@@ -22536,11 +22607,11 @@
       <c r="T9" s="12"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:22" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="8"/>
@@ -22552,9 +22623,9 @@
       <c r="T10" s="12"/>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -22568,9 +22639,9 @@
       <c r="T11" s="12"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:22" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="9" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B12" s="69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="11"/>
@@ -22583,9 +22654,9 @@
       <c r="T12" s="12"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="70" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -22599,9 +22670,9 @@
       <c r="T13" s="12"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:22" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="9" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="B14" s="69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C14" s="8"/>
       <c r="E14" s="11"/>
@@ -22614,9 +22685,9 @@
       <c r="T14" s="12"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -22630,12 +22701,12 @@
       <c r="T15" s="12"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="69" t="s">
         <v>462</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>464</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="11"/>
@@ -22648,10 +22719,10 @@
       <c r="T16" s="12"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="69" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="8"/>
@@ -22663,12 +22734,12 @@
       <c r="T17" s="12"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="106" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B18" s="121" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="11"/>
@@ -22681,15 +22752,15 @@
       <c r="T18" s="12"/>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A19" s="121" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" s="121" t="s">
+        <v>569</v>
+      </c>
+      <c r="C19" s="121" t="s">
         <v>570</v>
-      </c>
-      <c r="B19" s="121" t="s">
-        <v>571</v>
-      </c>
-      <c r="C19" s="121" t="s">
-        <v>572</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="8"/>
@@ -22701,12 +22772,12 @@
       <c r="T19" s="12"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="71" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C20" s="8"/>
       <c r="E20" s="11"/>
@@ -22719,12 +22790,12 @@
       <c r="T20" s="12"/>
       <c r="U20" s="8"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="67" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C21" s="8"/>
       <c r="E21" s="11"/>
@@ -22737,9 +22808,9 @@
       <c r="T21" s="12"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B22" s="105" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C22" s="8"/>
       <c r="E22" s="11"/>
@@ -22752,12 +22823,12 @@
       <c r="T22" s="12"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="68" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C23" s="8"/>
       <c r="E23" s="11"/>
@@ -22770,15 +22841,15 @@
       <c r="T23" s="12"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="8"/>
@@ -22790,12 +22861,12 @@
       <c r="T24" s="12"/>
       <c r="U24" s="8"/>
     </row>
-    <row r="25" spans="1:21" s="9" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="9" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="B25" s="69" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="8"/>
@@ -22807,12 +22878,12 @@
       <c r="T25" s="12"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="8"/>
@@ -22824,12 +22895,12 @@
       <c r="T26" s="12"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" s="9" customFormat="1" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="391.5" x14ac:dyDescent="0.35">
       <c r="B27" s="69" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E27" s="11"/>
       <c r="G27" s="8"/>
@@ -22841,12 +22912,12 @@
       <c r="T27" s="12"/>
       <c r="U27" s="8"/>
     </row>
-    <row r="28" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="68" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C28" s="8"/>
       <c r="E28" s="11"/>
@@ -22859,13 +22930,13 @@
       <c r="T28" s="12"/>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A29" s="74" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="73" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E29" s="11"/>
       <c r="G29" s="8"/>
@@ -22877,49 +22948,49 @@
       <c r="T29" s="12"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="117" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B30" s="89"/>
       <c r="C30" s="89"/>
       <c r="D30" s="89"/>
     </row>
-    <row r="31" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="203" x14ac:dyDescent="0.35">
       <c r="A31" s="89"/>
       <c r="B31" s="89"/>
       <c r="C31" s="116" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D31" s="89"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="68" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="89"/>
     </row>
-    <row r="33" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A33" s="119" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="116" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D33" s="89"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="89"/>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>
       <c r="D34" s="89"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="79"/>
       <c r="B35" s="80"/>
       <c r="C35" s="80"/>
@@ -22938,22 +23009,22 @@
       <c r="S35" s="80"/>
       <c r="U35" s="80"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="100" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B36" s="82"/>
       <c r="C36" s="99" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D36" s="81"/>
       <c r="P36" s="76"/>
       <c r="U36" s="76"/>
       <c r="V36" s="77"/>
     </row>
-    <row r="37" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="83" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B37" s="82"/>
       <c r="C37" s="82"/>
@@ -22974,55 +23045,55 @@
       <c r="U37" s="77"/>
       <c r="V37" s="76"/>
     </row>
-    <row r="38" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A38" s="81"/>
       <c r="B38" s="120" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D38" s="81"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="84" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B39" s="82"/>
       <c r="C39" s="82"/>
       <c r="D39" s="81"/>
     </row>
-    <row r="40" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="81"/>
       <c r="B40" s="82"/>
       <c r="C40" s="85" t="s">
+        <v>480</v>
+      </c>
+      <c r="D40" s="81"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="B41" s="86" t="s">
         <v>482</v>
-      </c>
-      <c r="D40" s="81"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="B41" s="86" t="s">
-        <v>484</v>
       </c>
       <c r="C41" s="87"/>
       <c r="D41" s="83"/>
     </row>
-    <row r="42" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A42" s="81"/>
       <c r="B42" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="C42" s="82" t="s">
+        <v>484</v>
+      </c>
+      <c r="D42" s="82" t="s">
         <v>485</v>
       </c>
-      <c r="C42" s="82" t="s">
-        <v>486</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="81"/>
       <c r="B43" s="87" t="s">
         <v>5</v>
@@ -23032,70 +23103,70 @@
       </c>
       <c r="D43" s="81"/>
     </row>
-    <row r="44" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A44" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44" s="82" t="s">
         <v>488</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="D44" s="82" t="s">
         <v>489</v>
       </c>
-      <c r="C44" s="82" t="s">
+    </row>
+    <row r="45" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="81" t="s">
         <v>490</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="B45" s="82" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A45" s="81" t="s">
+      <c r="C45" s="82" t="s">
         <v>492</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="D45" s="82" t="s">
         <v>493</v>
       </c>
-      <c r="C45" s="82" t="s">
-        <v>494</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A46" s="81"/>
       <c r="B46" s="82" t="s">
+        <v>494</v>
+      </c>
+      <c r="C46" s="82" t="s">
+        <v>495</v>
+      </c>
+      <c r="D46" s="82"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A47" s="88" t="s">
         <v>496</v>
       </c>
-      <c r="C46" s="82" t="s">
+      <c r="B47" s="86" t="s">
         <v>497</v>
-      </c>
-      <c r="D46" s="82"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" s="88" t="s">
-        <v>498</v>
-      </c>
-      <c r="B47" s="86" t="s">
-        <v>499</v>
       </c>
       <c r="C47" s="82"/>
       <c r="D47" s="82"/>
     </row>
-    <row r="48" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A48" s="81"/>
       <c r="B48" s="82" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C48" s="82" t="s">
+        <v>498</v>
+      </c>
+      <c r="D48" s="82"/>
+    </row>
+    <row r="49" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="83" t="s">
+        <v>499</v>
+      </c>
+      <c r="B49" s="86" t="s">
         <v>500</v>
-      </c>
-      <c r="D48" s="82"/>
-    </row>
-    <row r="49" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="83" t="s">
-        <v>501</v>
-      </c>
-      <c r="B49" s="86" t="s">
-        <v>502</v>
       </c>
       <c r="C49" s="82"/>
       <c r="D49" s="81"/>
@@ -23115,15 +23186,15 @@
       <c r="U49" s="77"/>
       <c r="V49" s="76"/>
     </row>
-    <row r="50" spans="1:22" s="75" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" s="75" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A50" s="114" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="92" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C50" s="82" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D50" s="81"/>
       <c r="F50" s="76"/>
@@ -23142,13 +23213,13 @@
       <c r="U50" s="77"/>
       <c r="V50" s="76"/>
     </row>
-    <row r="51" spans="1:22" s="75" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" s="75" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A51" s="81"/>
       <c r="B51" s="85" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D51" s="81"/>
       <c r="F51" s="76"/>
@@ -23167,12 +23238,12 @@
       <c r="U51" s="77"/>
       <c r="V51" s="76"/>
     </row>
-    <row r="52" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="115" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C52" s="82"/>
       <c r="D52" s="81"/>
@@ -23192,11 +23263,11 @@
       <c r="U52" s="77"/>
       <c r="V52" s="76"/>
     </row>
-    <row r="53" spans="1:22" s="75" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" s="75" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A53" s="81"/>
       <c r="B53" s="82"/>
       <c r="C53" s="113" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D53" s="81"/>
       <c r="F53" s="76"/>
@@ -23215,11 +23286,11 @@
       <c r="U53" s="77"/>
       <c r="V53" s="76"/>
     </row>
-    <row r="54" spans="1:22" s="75" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" s="75" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A54" s="81"/>
       <c r="B54" s="82"/>
       <c r="C54" s="113" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D54" s="81"/>
       <c r="F54" s="76"/>
@@ -23238,137 +23309,137 @@
       <c r="U54" s="77"/>
       <c r="V54" s="76"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="130" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B55" s="131" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="132" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="132" t="s">
+        <v>604</v>
+      </c>
+      <c r="B56" s="133" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="A56" s="132" t="s">
+      <c r="C56" s="133" t="s">
         <v>606</v>
       </c>
-      <c r="B56" s="133" t="s">
+      <c r="D56" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C56" s="133" t="s">
-        <v>608</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="133" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="232" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="133" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C58" s="133" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="134" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D59" s="134" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="133" t="s">
+        <v>613</v>
+      </c>
+      <c r="D60" s="133" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A61" s="135" t="s">
         <v>615</v>
-      </c>
-      <c r="D60" s="133" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A61" s="135" t="s">
-        <v>617</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="232" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="133" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="136" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="132" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="133" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="133" t="s">
+        <v>620</v>
+      </c>
+      <c r="C65" s="133" t="s">
+        <v>621</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="135" t="s">
         <v>622</v>
-      </c>
-      <c r="C65" s="133" t="s">
-        <v>623</v>
-      </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="135" t="s">
-        <v>624</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="134" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D66" s="134" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="406" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="133" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D67" s="133" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="79"/>
       <c r="B68" s="80"/>
       <c r="C68" s="80"/>
@@ -23387,26 +23458,26 @@
       <c r="S68" s="80"/>
       <c r="U68" s="80"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="102"/>
       <c r="B69" s="82"/>
       <c r="C69" s="151" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D69" s="81"/>
       <c r="P69" s="76"/>
       <c r="U69" s="76"/>
       <c r="V69" s="77"/>
     </row>
-    <row r="70" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="154" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B70" s="115" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C70" s="152" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D70" s="81"/>
       <c r="F70" s="76"/>
@@ -23425,15 +23496,15 @@
       <c r="U70" s="77"/>
       <c r="V70" s="76"/>
     </row>
-    <row r="71" spans="1:22" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="154" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B71" s="153" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C71" s="152" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D71" s="81"/>
       <c r="F71" s="76"/>
@@ -23452,9 +23523,9 @@
       <c r="U71" s="77"/>
       <c r="V71" s="76"/>
     </row>
-    <row r="72" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="155" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B72" s="82"/>
       <c r="C72" s="82"/>
@@ -23475,13 +23546,13 @@
       <c r="U72" s="77"/>
       <c r="V72" s="76"/>
     </row>
-    <row r="73" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="81"/>
       <c r="B73" s="152" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C73" s="152" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D73" s="81"/>
       <c r="F73" s="76"/>
@@ -23500,11 +23571,11 @@
       <c r="U73" s="77"/>
       <c r="V73" s="76"/>
     </row>
-    <row r="74" spans="1:22" s="75" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" s="75" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A74" s="81"/>
       <c r="B74" s="82"/>
       <c r="C74" s="152" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D74" s="81"/>
       <c r="F74" s="76"/>
@@ -23523,7 +23594,7 @@
       <c r="U74" s="77"/>
       <c r="V74" s="76"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="79"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -23542,20 +23613,20 @@
       <c r="S75" s="80"/>
       <c r="U75" s="80"/>
     </row>
-    <row r="76" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="102"/>
       <c r="B76" s="82"/>
       <c r="C76" s="156" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D76" s="81"/>
       <c r="P76" s="76"/>
       <c r="U76" s="76"/>
       <c r="V76" s="77"/>
     </row>
-    <row r="77" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="158" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B77" s="82"/>
       <c r="C77" s="82"/>
@@ -23576,11 +23647,11 @@
       <c r="U77" s="77"/>
       <c r="V77" s="76"/>
     </row>
-    <row r="78" spans="1:22" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="81"/>
       <c r="B78" s="82"/>
       <c r="C78" s="159" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D78" s="81"/>
       <c r="F78" s="76"/>
@@ -23599,11 +23670,11 @@
       <c r="U78" s="77"/>
       <c r="V78" s="76"/>
     </row>
-    <row r="79" spans="1:22" s="75" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" s="75" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="81"/>
       <c r="B79" s="82"/>
       <c r="C79" s="159" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D79" s="81"/>
       <c r="F79" s="76"/>
@@ -23622,13 +23693,13 @@
       <c r="U79" s="77"/>
       <c r="V79" s="76"/>
     </row>
-    <row r="80" spans="1:22" s="75" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" s="75" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A80" s="81"/>
       <c r="B80" s="159" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C80" s="159" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D80" s="159"/>
       <c r="F80" s="76"/>
@@ -23647,9 +23718,9 @@
       <c r="U80" s="77"/>
       <c r="V80" s="76"/>
     </row>
-    <row r="81" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="160" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B81" s="82"/>
       <c r="C81" s="82"/>
@@ -23670,11 +23741,11 @@
       <c r="U81" s="77"/>
       <c r="V81" s="76"/>
     </row>
-    <row r="82" spans="1:22" s="75" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" s="75" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A82" s="81"/>
       <c r="B82" s="82"/>
       <c r="C82" s="159" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D82" s="81"/>
       <c r="F82" s="76"/>
@@ -23693,11 +23764,11 @@
       <c r="U82" s="77"/>
       <c r="V82" s="76"/>
     </row>
-    <row r="83" spans="1:22" s="75" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" s="75" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="81"/>
       <c r="B83" s="82"/>
       <c r="C83" s="159" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D83" s="81"/>
       <c r="F83" s="76"/>
@@ -23716,11 +23787,11 @@
       <c r="U83" s="77"/>
       <c r="V83" s="76"/>
     </row>
-    <row r="84" spans="1:22" s="75" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" s="75" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="81"/>
       <c r="B84" s="82"/>
       <c r="C84" s="159" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D84" s="81"/>
       <c r="F84" s="76"/>
@@ -23739,11 +23810,11 @@
       <c r="U84" s="77"/>
       <c r="V84" s="76"/>
     </row>
-    <row r="85" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="81"/>
       <c r="B85" s="82"/>
       <c r="C85" s="159" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D85" s="81"/>
       <c r="F85" s="76"/>
@@ -23762,11 +23833,11 @@
       <c r="U85" s="77"/>
       <c r="V85" s="76"/>
     </row>
-    <row r="86" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="81"/>
       <c r="B86" s="82"/>
       <c r="C86" s="159" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D86" s="81"/>
       <c r="F86" s="76"/>
@@ -23785,9 +23856,9 @@
       <c r="U86" s="77"/>
       <c r="V86" s="76"/>
     </row>
-    <row r="87" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="160" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B87" s="82"/>
       <c r="C87" s="82"/>
@@ -23808,13 +23879,13 @@
       <c r="U87" s="77"/>
       <c r="V87" s="76"/>
     </row>
-    <row r="88" spans="1:22" s="75" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" s="75" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="157" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B88" s="82"/>
       <c r="C88" s="159" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D88" s="81"/>
       <c r="F88" s="76"/>
@@ -23833,9 +23904,9 @@
       <c r="U88" s="77"/>
       <c r="V88" s="76"/>
     </row>
-    <row r="89" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="160" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B89" s="82"/>
       <c r="C89" s="82"/>
@@ -23856,13 +23927,13 @@
       <c r="U89" s="77"/>
       <c r="V89" s="76"/>
     </row>
-    <row r="90" spans="1:22" s="75" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" s="75" customFormat="1" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A90" s="157" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B90" s="82"/>
       <c r="C90" s="159" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D90" s="81"/>
       <c r="F90" s="76"/>
@@ -23881,7 +23952,7 @@
       <c r="U90" s="77"/>
       <c r="V90" s="76"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="79"/>
       <c r="B91" s="80"/>
       <c r="C91" s="80"/>
@@ -23900,22 +23971,22 @@
       <c r="S91" s="80"/>
       <c r="U91" s="80"/>
     </row>
-    <row r="92" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="102"/>
       <c r="B92" s="82"/>
       <c r="C92" s="156" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D92" s="81"/>
       <c r="P92" s="76"/>
       <c r="U92" s="76"/>
       <c r="V92" s="77"/>
     </row>
-    <row r="93" spans="1:22" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="81"/>
       <c r="B93" s="82"/>
       <c r="C93" s="159" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D93" s="81"/>
       <c r="F93" s="76"/>
@@ -23934,11 +24005,11 @@
       <c r="U93" s="77"/>
       <c r="V93" s="76"/>
     </row>
-    <row r="94" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="81"/>
       <c r="B94" s="82"/>
       <c r="C94" s="159" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D94" s="81"/>
       <c r="F94" s="76"/>
@@ -23957,9 +24028,9 @@
       <c r="U94" s="77"/>
       <c r="V94" s="76"/>
     </row>
-    <row r="95" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="158" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B95" s="82"/>
       <c r="C95" s="82"/>
@@ -23980,13 +24051,13 @@
       <c r="U95" s="77"/>
       <c r="V95" s="76"/>
     </row>
-    <row r="96" spans="1:22" s="75" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" s="75" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A96" s="81"/>
       <c r="B96" s="159" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C96" s="159" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D96" s="81"/>
       <c r="F96" s="76"/>
@@ -24005,9 +24076,9 @@
       <c r="U96" s="77"/>
       <c r="V96" s="76"/>
     </row>
-    <row r="97" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="158" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B97" s="82"/>
       <c r="C97" s="82"/>
@@ -24028,11 +24099,11 @@
       <c r="U97" s="77"/>
       <c r="V97" s="76"/>
     </row>
-    <row r="98" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="81"/>
       <c r="B98" s="82"/>
       <c r="C98" s="159" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D98" s="81"/>
       <c r="F98" s="76"/>
@@ -24051,13 +24122,13 @@
       <c r="U98" s="77"/>
       <c r="V98" s="76"/>
     </row>
-    <row r="99" spans="1:22" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" s="75" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="81"/>
       <c r="B99" s="159" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C99" s="159" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D99" s="81"/>
       <c r="F99" s="76"/>
@@ -24076,7 +24147,7 @@
       <c r="U99" s="77"/>
       <c r="V99" s="76"/>
     </row>
-    <row r="100" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="81"/>
       <c r="B100" s="82"/>
       <c r="C100" s="82"/>
@@ -24097,7 +24168,7 @@
       <c r="U100" s="77"/>
       <c r="V100" s="76"/>
     </row>
-    <row r="101" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="81"/>
       <c r="B101" s="82"/>
       <c r="C101" s="82"/>
@@ -24118,7 +24189,7 @@
       <c r="U101" s="77"/>
       <c r="V101" s="76"/>
     </row>
-    <row r="102" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="81"/>
       <c r="B102" s="82"/>
       <c r="C102" s="82"/>
@@ -24139,7 +24210,7 @@
       <c r="U102" s="77"/>
       <c r="V102" s="76"/>
     </row>
-    <row r="103" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="81"/>
       <c r="B103" s="82"/>
       <c r="C103" s="82"/>
@@ -24160,7 +24231,7 @@
       <c r="U103" s="77"/>
       <c r="V103" s="76"/>
     </row>
-    <row r="104" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="81"/>
       <c r="B104" s="82"/>
       <c r="C104" s="82"/>
@@ -24181,7 +24252,7 @@
       <c r="U104" s="77"/>
       <c r="V104" s="76"/>
     </row>
-    <row r="105" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="81"/>
       <c r="B105" s="82"/>
       <c r="C105" s="82"/>
@@ -24202,7 +24273,7 @@
       <c r="U105" s="77"/>
       <c r="V105" s="76"/>
     </row>
-    <row r="106" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="81"/>
       <c r="B106" s="82"/>
       <c r="C106" s="82"/>
@@ -24223,7 +24294,7 @@
       <c r="U106" s="77"/>
       <c r="V106" s="76"/>
     </row>
-    <row r="107" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="81"/>
       <c r="B107" s="82"/>
       <c r="C107" s="82"/>
@@ -24244,7 +24315,7 @@
       <c r="U107" s="77"/>
       <c r="V107" s="76"/>
     </row>
-    <row r="108" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="81"/>
       <c r="B108" s="82"/>
       <c r="C108" s="82"/>
@@ -24265,7 +24336,7 @@
       <c r="U108" s="77"/>
       <c r="V108" s="76"/>
     </row>
-    <row r="109" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="81"/>
       <c r="B109" s="82"/>
       <c r="C109" s="82"/>
@@ -24286,7 +24357,7 @@
       <c r="U109" s="77"/>
       <c r="V109" s="76"/>
     </row>
-    <row r="110" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="81"/>
       <c r="B110" s="82"/>
       <c r="C110" s="82"/>
@@ -24307,7 +24378,7 @@
       <c r="U110" s="77"/>
       <c r="V110" s="76"/>
     </row>
-    <row r="111" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="81"/>
       <c r="B111" s="82"/>
       <c r="C111" s="82"/>
@@ -24328,7 +24399,7 @@
       <c r="U111" s="77"/>
       <c r="V111" s="76"/>
     </row>
-    <row r="112" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="81"/>
       <c r="B112" s="82"/>
       <c r="C112" s="82"/>
@@ -24349,7 +24420,7 @@
       <c r="U112" s="77"/>
       <c r="V112" s="76"/>
     </row>
-    <row r="113" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="81"/>
       <c r="B113" s="82"/>
       <c r="C113" s="82"/>
@@ -24370,7 +24441,7 @@
       <c r="U113" s="77"/>
       <c r="V113" s="76"/>
     </row>
-    <row r="114" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="81"/>
       <c r="B114" s="82"/>
       <c r="C114" s="82"/>
@@ -24391,7 +24462,7 @@
       <c r="U114" s="77"/>
       <c r="V114" s="76"/>
     </row>
-    <row r="115" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="81"/>
       <c r="B115" s="82"/>
       <c r="C115" s="82"/>
@@ -24412,7 +24483,7 @@
       <c r="U115" s="77"/>
       <c r="V115" s="76"/>
     </row>
-    <row r="116" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="81"/>
       <c r="B116" s="82"/>
       <c r="C116" s="82"/>
@@ -24433,7 +24504,7 @@
       <c r="U116" s="77"/>
       <c r="V116" s="76"/>
     </row>
-    <row r="117" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="81"/>
       <c r="B117" s="82"/>
       <c r="C117" s="82"/>
@@ -24454,7 +24525,7 @@
       <c r="U117" s="77"/>
       <c r="V117" s="76"/>
     </row>
-    <row r="118" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="81"/>
       <c r="B118" s="82"/>
       <c r="C118" s="82"/>
@@ -24475,7 +24546,7 @@
       <c r="U118" s="77"/>
       <c r="V118" s="76"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119" s="79"/>
       <c r="B119" s="80"/>
       <c r="C119" s="80"/>
@@ -24494,18 +24565,18 @@
       <c r="S119" s="80"/>
       <c r="U119" s="80"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120" s="102"/>
       <c r="B120" s="82"/>
       <c r="C120" s="103" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D120" s="81"/>
       <c r="P120" s="76"/>
       <c r="U120" s="76"/>
       <c r="V120" s="77"/>
     </row>
-    <row r="121" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="81"/>
       <c r="B121" s="77"/>
       <c r="C121" s="82"/>
@@ -24526,62 +24597,62 @@
       <c r="U121" s="77"/>
       <c r="V121" s="76"/>
     </row>
-    <row r="122" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B122" s="98" t="s">
+        <v>519</v>
+      </c>
+      <c r="C122" s="98" t="s">
         <v>521</v>
       </c>
-      <c r="C122" s="98" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="C123" s="112" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B124" s="92" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C124" s="98" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C125" s="92" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="C126" s="92" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A127" s="93" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="C126" s="92" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="A127" s="93" t="s">
-        <v>510</v>
-      </c>
       <c r="B127" s="92" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C127" s="92" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D127" s="92" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A128" s="96" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A128" s="96" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" ht="174" x14ac:dyDescent="0.35">
       <c r="C129" s="118" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D129" s="118" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -24602,38 +24673,38 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="4"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="4"/>
+    <col min="21" max="21" width="67.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -24652,7 +24723,7 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -24660,19 +24731,19 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C5" s="97" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C6" s="97" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -24692,38 +24763,38 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="4"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="4"/>
+    <col min="21" max="21" width="67.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -24742,19 +24813,19 @@
       <c r="S2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>8</v>
@@ -24766,88 +24837,88 @@
       <c r="U5" s="1"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C9" s="29"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C12" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="46" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="46" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="46" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="46" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="46" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
